--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Season</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>RS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -1080,1023 +1074,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>46</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>676</v>
-      </c>
-      <c r="J2">
-        <v>3.9</v>
-      </c>
-      <c r="K2">
-        <v>11.5</v>
-      </c>
-      <c r="L2">
-        <v>0.343</v>
-      </c>
-      <c r="M2">
-        <v>1.8</v>
-      </c>
-      <c r="N2">
-        <v>6.4</v>
-      </c>
-      <c r="O2">
-        <v>0.281</v>
-      </c>
-      <c r="P2">
-        <v>2.1</v>
-      </c>
-      <c r="Q2">
-        <v>5.1</v>
-      </c>
-      <c r="R2">
-        <v>0.421</v>
-      </c>
-      <c r="S2">
-        <v>1.9</v>
-      </c>
-      <c r="T2">
-        <v>2.4</v>
-      </c>
-      <c r="U2">
-        <v>0.7609999999999999</v>
-      </c>
-      <c r="V2">
-        <v>0.5</v>
-      </c>
-      <c r="W2">
-        <v>2.8</v>
-      </c>
-      <c r="X2">
-        <v>3.4</v>
-      </c>
-      <c r="Y2">
-        <v>6.4</v>
-      </c>
-      <c r="Z2">
-        <v>1.2</v>
-      </c>
-      <c r="AA2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2">
-        <v>1.6</v>
-      </c>
-      <c r="AC2">
-        <v>2.6</v>
-      </c>
-      <c r="AD2">
-        <v>11.6</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>63</v>
-      </c>
-      <c r="H4">
-        <v>53</v>
-      </c>
-      <c r="I4">
-        <v>2211</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>15.7</v>
-      </c>
-      <c r="L4">
-        <v>0.382</v>
-      </c>
-      <c r="M4">
-        <v>3.5</v>
-      </c>
-      <c r="N4">
-        <v>9.5</v>
-      </c>
-      <c r="O4">
-        <v>0.373</v>
-      </c>
-      <c r="P4">
-        <v>2.4</v>
-      </c>
-      <c r="Q4">
-        <v>6.2</v>
-      </c>
-      <c r="R4">
-        <v>0.397</v>
-      </c>
-      <c r="S4">
-        <v>3.1</v>
-      </c>
-      <c r="T4">
-        <v>3.8</v>
-      </c>
-      <c r="U4">
-        <v>0.82</v>
-      </c>
-      <c r="V4">
-        <v>0.7</v>
-      </c>
-      <c r="W4">
-        <v>2.8</v>
-      </c>
-      <c r="X4">
-        <v>3.5</v>
-      </c>
-      <c r="Y4">
-        <v>7.7</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0.2</v>
-      </c>
-      <c r="AB4">
-        <v>2.9</v>
-      </c>
-      <c r="AC4">
-        <v>1.9</v>
-      </c>
-      <c r="AD4">
-        <v>18.6</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>51</v>
-      </c>
-      <c r="H6">
-        <v>44</v>
-      </c>
-      <c r="I6">
-        <v>1531</v>
-      </c>
-      <c r="J6">
-        <v>5.4</v>
-      </c>
-      <c r="K6">
-        <v>14.5</v>
-      </c>
-      <c r="L6">
-        <v>0.374</v>
-      </c>
-      <c r="M6">
-        <v>3.8</v>
-      </c>
-      <c r="N6">
-        <v>10.3</v>
-      </c>
-      <c r="O6">
-        <v>0.373</v>
-      </c>
-      <c r="P6">
-        <v>1.6</v>
-      </c>
-      <c r="Q6">
-        <v>4.3</v>
-      </c>
-      <c r="R6">
-        <v>0.376</v>
-      </c>
-      <c r="S6">
-        <v>2.7</v>
-      </c>
-      <c r="T6">
-        <v>3.3</v>
-      </c>
-      <c r="U6">
-        <v>0.821</v>
-      </c>
-      <c r="V6">
-        <v>0.4</v>
-      </c>
-      <c r="W6">
-        <v>2.8</v>
-      </c>
-      <c r="X6">
-        <v>3.2</v>
-      </c>
-      <c r="Y6">
-        <v>6.5</v>
-      </c>
-      <c r="Z6">
-        <v>1.1</v>
-      </c>
-      <c r="AA6">
-        <v>0.1</v>
-      </c>
-      <c r="AB6">
-        <v>1.9</v>
-      </c>
-      <c r="AC6">
-        <v>1.7</v>
-      </c>
-      <c r="AD6">
-        <v>17.4</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8">
-        <v>160</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>4418</v>
-      </c>
-      <c r="J8">
-        <v>5.5</v>
-      </c>
-      <c r="K8">
-        <v>14.6</v>
-      </c>
-      <c r="L8">
-        <v>0.375</v>
-      </c>
-      <c r="M8">
-        <v>3.4</v>
-      </c>
-      <c r="N8">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.363</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>5.3</v>
-      </c>
-      <c r="R8">
-        <v>0.394</v>
-      </c>
-      <c r="S8">
-        <v>2.8</v>
-      </c>
-      <c r="T8">
-        <v>3.4</v>
-      </c>
-      <c r="U8">
-        <v>0.8140000000000001</v>
-      </c>
-      <c r="V8">
-        <v>0.6</v>
-      </c>
-      <c r="W8">
-        <v>2.8</v>
-      </c>
-      <c r="X8">
-        <v>3.4</v>
-      </c>
-      <c r="Y8">
-        <v>7.1</v>
-      </c>
-      <c r="Z8">
-        <v>1.1</v>
-      </c>
-      <c r="AA8">
-        <v>0.2</v>
-      </c>
-      <c r="AB8">
-        <v>2.4</v>
-      </c>
-      <c r="AC8">
-        <v>1.9</v>
-      </c>
-      <c r="AD8">
-        <v>17.1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>46</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>676</v>
-      </c>
-      <c r="J2">
-        <v>5.3</v>
-      </c>
-      <c r="K2">
-        <v>15.5</v>
-      </c>
-      <c r="L2">
-        <v>0.343</v>
-      </c>
-      <c r="M2">
-        <v>2.4</v>
-      </c>
-      <c r="N2">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O2">
-        <v>0.281</v>
-      </c>
-      <c r="P2">
-        <v>2.9</v>
-      </c>
-      <c r="Q2">
-        <v>6.8</v>
-      </c>
-      <c r="R2">
-        <v>0.421</v>
-      </c>
-      <c r="S2">
-        <v>2.5</v>
-      </c>
-      <c r="T2">
-        <v>3.3</v>
-      </c>
-      <c r="U2">
-        <v>0.7609999999999999</v>
-      </c>
-      <c r="V2">
-        <v>0.7</v>
-      </c>
-      <c r="W2">
-        <v>3.8</v>
-      </c>
-      <c r="X2">
-        <v>4.5</v>
-      </c>
-      <c r="Y2">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>1.7</v>
-      </c>
-      <c r="AA2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2">
-        <v>2.2</v>
-      </c>
-      <c r="AC2">
-        <v>3.5</v>
-      </c>
-      <c r="AD2">
-        <v>15.6</v>
-      </c>
-      <c r="AF2">
-        <v>104</v>
-      </c>
-      <c r="AG2">
-        <v>115</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>63</v>
-      </c>
-      <c r="H4">
-        <v>53</v>
-      </c>
-      <c r="I4">
-        <v>2211</v>
-      </c>
-      <c r="J4">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K4">
-        <v>21.8</v>
-      </c>
-      <c r="L4">
-        <v>0.382</v>
-      </c>
-      <c r="M4">
-        <v>4.9</v>
-      </c>
-      <c r="N4">
-        <v>13.3</v>
-      </c>
-      <c r="O4">
-        <v>0.373</v>
-      </c>
-      <c r="P4">
-        <v>3.4</v>
-      </c>
-      <c r="Q4">
-        <v>8.6</v>
-      </c>
-      <c r="R4">
-        <v>0.397</v>
-      </c>
-      <c r="S4">
-        <v>4.3</v>
-      </c>
-      <c r="T4">
-        <v>5.3</v>
-      </c>
-      <c r="U4">
-        <v>0.82</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>3.9</v>
-      </c>
-      <c r="X4">
-        <v>4.8</v>
-      </c>
-      <c r="Y4">
-        <v>10.7</v>
-      </c>
-      <c r="Z4">
-        <v>1.4</v>
-      </c>
-      <c r="AA4">
-        <v>0.3</v>
-      </c>
-      <c r="AB4">
-        <v>4.1</v>
-      </c>
-      <c r="AC4">
-        <v>2.6</v>
-      </c>
-      <c r="AD4">
-        <v>25.9</v>
-      </c>
-      <c r="AF4">
-        <v>109</v>
-      </c>
-      <c r="AG4">
-        <v>116</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>51</v>
-      </c>
-      <c r="H6">
-        <v>44</v>
-      </c>
-      <c r="I6">
-        <v>1531</v>
-      </c>
-      <c r="J6">
-        <v>7.4</v>
-      </c>
-      <c r="K6">
-        <v>19.7</v>
-      </c>
-      <c r="L6">
-        <v>0.374</v>
-      </c>
-      <c r="M6">
-        <v>5.2</v>
-      </c>
-      <c r="N6">
-        <v>13.9</v>
-      </c>
-      <c r="O6">
-        <v>0.373</v>
-      </c>
-      <c r="P6">
-        <v>2.2</v>
-      </c>
-      <c r="Q6">
-        <v>5.8</v>
-      </c>
-      <c r="R6">
-        <v>0.376</v>
-      </c>
-      <c r="S6">
-        <v>3.7</v>
-      </c>
-      <c r="T6">
-        <v>4.5</v>
-      </c>
-      <c r="U6">
-        <v>0.821</v>
-      </c>
-      <c r="V6">
-        <v>0.6</v>
-      </c>
-      <c r="W6">
-        <v>3.8</v>
-      </c>
-      <c r="X6">
-        <v>4.4</v>
-      </c>
-      <c r="Y6">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z6">
-        <v>1.5</v>
-      </c>
-      <c r="AA6">
-        <v>0.2</v>
-      </c>
-      <c r="AB6">
-        <v>2.6</v>
-      </c>
-      <c r="AC6">
-        <v>2.3</v>
-      </c>
-      <c r="AD6">
-        <v>23.6</v>
-      </c>
-      <c r="AF6">
-        <v>114</v>
-      </c>
-      <c r="AG6">
-        <v>116</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8">
-        <v>160</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>4418</v>
-      </c>
-      <c r="J8">
-        <v>7.5</v>
-      </c>
-      <c r="K8">
-        <v>20.1</v>
-      </c>
-      <c r="L8">
-        <v>0.375</v>
-      </c>
-      <c r="M8">
-        <v>4.6</v>
-      </c>
-      <c r="N8">
-        <v>12.8</v>
-      </c>
-      <c r="O8">
-        <v>0.363</v>
-      </c>
-      <c r="P8">
-        <v>2.9</v>
-      </c>
-      <c r="Q8">
-        <v>7.3</v>
-      </c>
-      <c r="R8">
-        <v>0.394</v>
-      </c>
-      <c r="S8">
-        <v>3.8</v>
-      </c>
-      <c r="T8">
-        <v>4.7</v>
-      </c>
-      <c r="U8">
-        <v>0.8140000000000001</v>
-      </c>
-      <c r="V8">
-        <v>0.8</v>
-      </c>
-      <c r="W8">
-        <v>3.8</v>
-      </c>
-      <c r="X8">
-        <v>4.6</v>
-      </c>
-      <c r="Y8">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Z8">
-        <v>1.5</v>
-      </c>
-      <c r="AA8">
-        <v>0.3</v>
-      </c>
-      <c r="AB8">
-        <v>3.3</v>
-      </c>
-      <c r="AC8">
-        <v>2.6</v>
-      </c>
-      <c r="AD8">
-        <v>23.5</v>
-      </c>
-      <c r="AF8">
-        <v>110</v>
-      </c>
-      <c r="AG8">
-        <v>116</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2132,70 +1127,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>
@@ -2460,7 +1455,7 @@
         <v>2.9</v>
       </c>
       <c r="Y6">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
       <c r="AA6">
         <v>1.2</v>
@@ -2545,7 +1540,7 @@
         <v>6.8</v>
       </c>
       <c r="Y8">
-        <v>0.07400000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="AA8">
         <v>1.3</v>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
   <si>
     <t>Season</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -1074,24 +1080,1023 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>676</v>
+      </c>
+      <c r="J2">
+        <v>3.9</v>
+      </c>
+      <c r="K2">
+        <v>11.5</v>
+      </c>
+      <c r="L2">
+        <v>0.343</v>
+      </c>
+      <c r="M2">
+        <v>1.8</v>
+      </c>
+      <c r="N2">
+        <v>6.4</v>
+      </c>
+      <c r="O2">
+        <v>0.281</v>
+      </c>
+      <c r="P2">
+        <v>2.1</v>
+      </c>
+      <c r="Q2">
+        <v>5.1</v>
+      </c>
+      <c r="R2">
+        <v>0.421</v>
+      </c>
+      <c r="S2">
+        <v>1.9</v>
+      </c>
+      <c r="T2">
+        <v>2.4</v>
+      </c>
+      <c r="U2">
+        <v>0.7609999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.5</v>
+      </c>
+      <c r="W2">
+        <v>2.8</v>
+      </c>
+      <c r="X2">
+        <v>3.4</v>
+      </c>
+      <c r="Y2">
+        <v>6.4</v>
+      </c>
+      <c r="Z2">
+        <v>1.2</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>1.6</v>
+      </c>
+      <c r="AC2">
+        <v>2.6</v>
+      </c>
+      <c r="AD2">
+        <v>11.6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>2211</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>15.7</v>
+      </c>
+      <c r="L4">
+        <v>0.382</v>
+      </c>
+      <c r="M4">
+        <v>3.5</v>
+      </c>
+      <c r="N4">
+        <v>9.5</v>
+      </c>
+      <c r="O4">
+        <v>0.373</v>
+      </c>
+      <c r="P4">
+        <v>2.4</v>
+      </c>
+      <c r="Q4">
+        <v>6.2</v>
+      </c>
+      <c r="R4">
+        <v>0.397</v>
+      </c>
+      <c r="S4">
+        <v>3.1</v>
+      </c>
+      <c r="T4">
+        <v>3.8</v>
+      </c>
+      <c r="U4">
+        <v>0.82</v>
+      </c>
+      <c r="V4">
+        <v>0.7</v>
+      </c>
+      <c r="W4">
+        <v>2.8</v>
+      </c>
+      <c r="X4">
+        <v>3.5</v>
+      </c>
+      <c r="Y4">
+        <v>7.7</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0.2</v>
+      </c>
+      <c r="AB4">
+        <v>2.9</v>
+      </c>
+      <c r="AC4">
+        <v>1.9</v>
+      </c>
+      <c r="AD4">
+        <v>18.6</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>1531</v>
+      </c>
+      <c r="J6">
+        <v>5.4</v>
+      </c>
+      <c r="K6">
+        <v>14.5</v>
+      </c>
+      <c r="L6">
+        <v>0.374</v>
+      </c>
+      <c r="M6">
+        <v>3.8</v>
+      </c>
+      <c r="N6">
+        <v>10.3</v>
+      </c>
+      <c r="O6">
+        <v>0.373</v>
+      </c>
+      <c r="P6">
+        <v>1.6</v>
+      </c>
+      <c r="Q6">
+        <v>4.3</v>
+      </c>
+      <c r="R6">
+        <v>0.376</v>
+      </c>
+      <c r="S6">
+        <v>2.7</v>
+      </c>
+      <c r="T6">
+        <v>3.3</v>
+      </c>
+      <c r="U6">
+        <v>0.821</v>
+      </c>
+      <c r="V6">
+        <v>0.4</v>
+      </c>
+      <c r="W6">
+        <v>2.8</v>
+      </c>
+      <c r="X6">
+        <v>3.2</v>
+      </c>
+      <c r="Y6">
+        <v>6.5</v>
+      </c>
+      <c r="Z6">
+        <v>1.1</v>
+      </c>
+      <c r="AA6">
+        <v>0.1</v>
+      </c>
+      <c r="AB6">
+        <v>1.9</v>
+      </c>
+      <c r="AC6">
+        <v>1.7</v>
+      </c>
+      <c r="AD6">
+        <v>17.4</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>160</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>4418</v>
+      </c>
+      <c r="J8">
+        <v>5.5</v>
+      </c>
+      <c r="K8">
+        <v>14.6</v>
+      </c>
+      <c r="L8">
+        <v>0.375</v>
+      </c>
+      <c r="M8">
+        <v>3.4</v>
+      </c>
+      <c r="N8">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.363</v>
+      </c>
+      <c r="P8">
+        <v>2.1</v>
+      </c>
+      <c r="Q8">
+        <v>5.3</v>
+      </c>
+      <c r="R8">
+        <v>0.394</v>
+      </c>
+      <c r="S8">
+        <v>2.8</v>
+      </c>
+      <c r="T8">
+        <v>3.4</v>
+      </c>
+      <c r="U8">
+        <v>0.8140000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.6</v>
+      </c>
+      <c r="W8">
+        <v>2.8</v>
+      </c>
+      <c r="X8">
+        <v>3.4</v>
+      </c>
+      <c r="Y8">
+        <v>7.1</v>
+      </c>
+      <c r="Z8">
+        <v>1.1</v>
+      </c>
+      <c r="AA8">
+        <v>0.2</v>
+      </c>
+      <c r="AB8">
+        <v>2.4</v>
+      </c>
+      <c r="AC8">
+        <v>1.9</v>
+      </c>
+      <c r="AD8">
+        <v>17.1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>676</v>
+      </c>
+      <c r="J2">
+        <v>5.3</v>
+      </c>
+      <c r="K2">
+        <v>15.5</v>
+      </c>
+      <c r="L2">
+        <v>0.343</v>
+      </c>
+      <c r="M2">
+        <v>2.4</v>
+      </c>
+      <c r="N2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.281</v>
+      </c>
+      <c r="P2">
+        <v>2.9</v>
+      </c>
+      <c r="Q2">
+        <v>6.8</v>
+      </c>
+      <c r="R2">
+        <v>0.421</v>
+      </c>
+      <c r="S2">
+        <v>2.5</v>
+      </c>
+      <c r="T2">
+        <v>3.3</v>
+      </c>
+      <c r="U2">
+        <v>0.7609999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.7</v>
+      </c>
+      <c r="W2">
+        <v>3.8</v>
+      </c>
+      <c r="X2">
+        <v>4.5</v>
+      </c>
+      <c r="Y2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>1.7</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>2.2</v>
+      </c>
+      <c r="AC2">
+        <v>3.5</v>
+      </c>
+      <c r="AD2">
+        <v>15.6</v>
+      </c>
+      <c r="AF2">
+        <v>104</v>
+      </c>
+      <c r="AG2">
+        <v>115</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>2211</v>
+      </c>
+      <c r="J4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K4">
+        <v>21.8</v>
+      </c>
+      <c r="L4">
+        <v>0.382</v>
+      </c>
+      <c r="M4">
+        <v>4.9</v>
+      </c>
+      <c r="N4">
+        <v>13.3</v>
+      </c>
+      <c r="O4">
+        <v>0.373</v>
+      </c>
+      <c r="P4">
+        <v>3.4</v>
+      </c>
+      <c r="Q4">
+        <v>8.6</v>
+      </c>
+      <c r="R4">
+        <v>0.397</v>
+      </c>
+      <c r="S4">
+        <v>4.3</v>
+      </c>
+      <c r="T4">
+        <v>5.3</v>
+      </c>
+      <c r="U4">
+        <v>0.82</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>3.9</v>
+      </c>
+      <c r="X4">
+        <v>4.8</v>
+      </c>
+      <c r="Y4">
+        <v>10.7</v>
+      </c>
+      <c r="Z4">
+        <v>1.4</v>
+      </c>
+      <c r="AA4">
+        <v>0.3</v>
+      </c>
+      <c r="AB4">
+        <v>4.1</v>
+      </c>
+      <c r="AC4">
+        <v>2.6</v>
+      </c>
+      <c r="AD4">
+        <v>25.9</v>
+      </c>
+      <c r="AF4">
+        <v>109</v>
+      </c>
+      <c r="AG4">
+        <v>116</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>1531</v>
+      </c>
+      <c r="J6">
+        <v>7.4</v>
+      </c>
+      <c r="K6">
+        <v>19.7</v>
+      </c>
+      <c r="L6">
+        <v>0.374</v>
+      </c>
+      <c r="M6">
+        <v>5.2</v>
+      </c>
+      <c r="N6">
+        <v>13.9</v>
+      </c>
+      <c r="O6">
+        <v>0.373</v>
+      </c>
+      <c r="P6">
+        <v>2.2</v>
+      </c>
+      <c r="Q6">
+        <v>5.8</v>
+      </c>
+      <c r="R6">
+        <v>0.376</v>
+      </c>
+      <c r="S6">
+        <v>3.7</v>
+      </c>
+      <c r="T6">
+        <v>4.5</v>
+      </c>
+      <c r="U6">
+        <v>0.821</v>
+      </c>
+      <c r="V6">
+        <v>0.6</v>
+      </c>
+      <c r="W6">
+        <v>3.8</v>
+      </c>
+      <c r="X6">
+        <v>4.4</v>
+      </c>
+      <c r="Y6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>1.5</v>
+      </c>
+      <c r="AA6">
+        <v>0.2</v>
+      </c>
+      <c r="AB6">
+        <v>2.6</v>
+      </c>
+      <c r="AC6">
+        <v>2.3</v>
+      </c>
+      <c r="AD6">
+        <v>23.6</v>
+      </c>
+      <c r="AF6">
+        <v>114</v>
+      </c>
+      <c r="AG6">
+        <v>116</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>160</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>4418</v>
+      </c>
+      <c r="J8">
+        <v>7.5</v>
+      </c>
+      <c r="K8">
+        <v>20.1</v>
+      </c>
+      <c r="L8">
+        <v>0.375</v>
+      </c>
+      <c r="M8">
+        <v>4.6</v>
+      </c>
+      <c r="N8">
+        <v>12.8</v>
+      </c>
+      <c r="O8">
+        <v>0.363</v>
+      </c>
+      <c r="P8">
+        <v>2.9</v>
+      </c>
+      <c r="Q8">
+        <v>7.3</v>
+      </c>
+      <c r="R8">
+        <v>0.394</v>
+      </c>
+      <c r="S8">
+        <v>3.8</v>
+      </c>
+      <c r="T8">
+        <v>4.7</v>
+      </c>
+      <c r="U8">
+        <v>0.8140000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.8</v>
+      </c>
+      <c r="W8">
+        <v>3.8</v>
+      </c>
+      <c r="X8">
+        <v>4.6</v>
+      </c>
+      <c r="Y8">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>1.5</v>
+      </c>
+      <c r="AA8">
+        <v>0.3</v>
+      </c>
+      <c r="AB8">
+        <v>3.3</v>
+      </c>
+      <c r="AC8">
+        <v>2.6</v>
+      </c>
+      <c r="AD8">
+        <v>23.5</v>
+      </c>
+      <c r="AF8">
+        <v>110</v>
+      </c>
+      <c r="AG8">
+        <v>116</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1127,70 +2132,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="W2">
         <v>0.2</v>
@@ -1035,7 +1035,7 @@
         <v>2.6</v>
       </c>
       <c r="V8">
-        <v>0.8140000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="W8">
         <v>0.4</v>
@@ -1240,7 +1240,7 @@
         <v>2.4</v>
       </c>
       <c r="U2">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="V2">
         <v>0.5</v>
@@ -1531,7 +1531,7 @@
         <v>3.4</v>
       </c>
       <c r="U8">
-        <v>0.8140000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="V8">
         <v>0.6</v>
@@ -1743,7 +1743,7 @@
         <v>3.3</v>
       </c>
       <c r="U2">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="V2">
         <v>0.7</v>
@@ -2052,7 +2052,7 @@
         <v>4.7</v>
       </c>
       <c r="U8">
-        <v>0.8140000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="V8">
         <v>0.8</v>
@@ -2421,7 +2421,7 @@
         <v>0.544</v>
       </c>
       <c r="K6">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="L6">
         <v>0.227</v>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -2448,7 +2448,7 @@
         <v>10.6</v>
       </c>
       <c r="T6">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V6">
         <v>2</v>
@@ -2460,7 +2460,7 @@
         <v>2.9</v>
       </c>
       <c r="Y6">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="AA6">
         <v>1.2</v>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="76">
   <si>
     <t>Season</t>
   </si>
@@ -121,6 +121,21 @@
     <t>2020-21</t>
   </si>
   <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>3 seasons</t>
+  </si>
+  <si>
+    <t>2 seasons</t>
+  </si>
+  <si>
+    <t>1 season</t>
+  </si>
+  <si>
     <t>Career</t>
   </si>
   <si>
@@ -133,9 +148,24 @@
     <t>25</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>CHO</t>
   </si>
   <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
     <t>NBA</t>
   </si>
   <si>
@@ -143,6 +173,9 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>PS</t>
   </si>
   <si>
     <t>ORtg</t>
@@ -569,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,16 +711,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -765,7 +798,7 @@
         <v>4.7</v>
       </c>
       <c r="AF2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -781,16 +814,16 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>63</v>
@@ -868,7 +901,7 @@
         <v>18.2</v>
       </c>
       <c r="AF4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -884,43 +917,43 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>44</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="J6">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K6">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="L6">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O6">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="P6">
         <v>1.3</v>
@@ -929,19 +962,19 @@
         <v>3.5</v>
       </c>
       <c r="R6">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="S6">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="T6">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U6">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="V6">
-        <v>0.821</v>
+        <v>0.842</v>
       </c>
       <c r="W6">
         <v>0.4</v>
@@ -962,16 +995,16 @@
         <v>0.1</v>
       </c>
       <c r="AC6">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD6">
         <v>1.4</v>
       </c>
       <c r="AE6">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="AF6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -986,91 +1019,1261 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="J8">
+        <v>3.9</v>
+      </c>
+      <c r="K8">
+        <v>10.7</v>
+      </c>
+      <c r="L8">
+        <v>0.363</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>7.4</v>
+      </c>
+      <c r="O8">
+        <v>0.341</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>3.3</v>
+      </c>
+      <c r="R8">
+        <v>0.413</v>
+      </c>
+      <c r="S8">
+        <v>0.481</v>
+      </c>
+      <c r="T8">
+        <v>1.6</v>
+      </c>
+      <c r="U8">
+        <v>1.8</v>
+      </c>
+      <c r="V8">
+        <v>0.843</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>1.8</v>
+      </c>
+      <c r="Y8">
+        <v>2.3</v>
+      </c>
+      <c r="Z8">
         <v>4.2</v>
       </c>
-      <c r="K8">
-        <v>11.2</v>
-      </c>
-      <c r="L8">
-        <v>0.375</v>
-      </c>
-      <c r="M8">
-        <v>2.6</v>
-      </c>
-      <c r="N8">
-        <v>7.1</v>
-      </c>
-      <c r="O8">
-        <v>0.363</v>
-      </c>
-      <c r="P8">
-        <v>1.6</v>
-      </c>
-      <c r="Q8">
-        <v>4.1</v>
-      </c>
-      <c r="R8">
-        <v>0.394</v>
-      </c>
-      <c r="S8">
-        <v>0.49</v>
-      </c>
-      <c r="T8">
-        <v>2.1</v>
-      </c>
-      <c r="U8">
-        <v>2.6</v>
-      </c>
-      <c r="V8">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="W8">
-        <v>0.4</v>
-      </c>
-      <c r="X8">
-        <v>2.1</v>
-      </c>
-      <c r="Y8">
-        <v>2.6</v>
-      </c>
-      <c r="Z8">
-        <v>5.4</v>
-      </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AB8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC8">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD8">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AE8">
-        <v>13.1</v>
+        <v>11.9</v>
       </c>
       <c r="AF8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0.333</v>
+      </c>
+      <c r="M9">
+        <v>0.8</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>0.357</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>0.7</v>
+      </c>
+      <c r="R9">
+        <v>0.25</v>
+      </c>
+      <c r="S9">
+        <v>0.472</v>
+      </c>
+      <c r="T9">
+        <v>1.2</v>
+      </c>
+      <c r="U9">
+        <v>1.3</v>
+      </c>
+      <c r="V9">
+        <v>0.875</v>
+      </c>
+      <c r="W9">
+        <v>0.3</v>
+      </c>
+      <c r="X9">
+        <v>1.2</v>
+      </c>
+      <c r="Y9">
+        <v>1.5</v>
+      </c>
+      <c r="Z9">
+        <v>0.7</v>
+      </c>
+      <c r="AA9">
+        <v>0.2</v>
+      </c>
+      <c r="AB9">
+        <v>0.2</v>
+      </c>
+      <c r="AC9">
+        <v>0.7</v>
+      </c>
+      <c r="AD9">
+        <v>0.5</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>-2.9</v>
+      </c>
+      <c r="K10">
+        <v>-7.699999999999999</v>
+      </c>
+      <c r="L10">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="M10">
+        <v>-1.7</v>
+      </c>
+      <c r="N10">
+        <v>-5.100000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.01599999999999996</v>
+      </c>
+      <c r="P10">
+        <v>-1.2</v>
+      </c>
+      <c r="Q10">
+        <v>-2.6</v>
+      </c>
+      <c r="R10">
+        <v>-0.163</v>
+      </c>
+      <c r="S10">
+        <v>-0.009000000000000008</v>
+      </c>
+      <c r="T10">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="U10">
+        <v>-0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.03200000000000003</v>
+      </c>
+      <c r="W10">
+        <v>-0.2</v>
+      </c>
+      <c r="X10">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>-3.5</v>
+      </c>
+      <c r="AA10">
+        <v>-0.7</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>-0.7</v>
+      </c>
+      <c r="AD10">
+        <v>-0.8</v>
+      </c>
+      <c r="AE10">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>17.8</v>
+      </c>
+      <c r="J11">
+        <v>2.2</v>
+      </c>
+      <c r="K11">
+        <v>5.7</v>
+      </c>
+      <c r="L11">
+        <v>0.384</v>
+      </c>
+      <c r="M11">
+        <v>1.6</v>
+      </c>
+      <c r="N11">
+        <v>4.5</v>
+      </c>
+      <c r="O11">
+        <v>0.362</v>
+      </c>
+      <c r="P11">
+        <v>0.6</v>
+      </c>
+      <c r="Q11">
+        <v>1.2</v>
+      </c>
+      <c r="R11">
+        <v>0.463</v>
+      </c>
+      <c r="S11">
+        <v>0.526</v>
+      </c>
+      <c r="T11">
+        <v>1.3</v>
+      </c>
+      <c r="U11">
+        <v>1.7</v>
+      </c>
+      <c r="V11">
+        <v>0.771</v>
+      </c>
+      <c r="W11">
+        <v>0.3</v>
+      </c>
+      <c r="X11">
+        <v>1.4</v>
+      </c>
+      <c r="Y11">
+        <v>1.6</v>
+      </c>
+      <c r="Z11">
+        <v>2.7</v>
+      </c>
+      <c r="AA11">
+        <v>0.6</v>
+      </c>
+      <c r="AB11">
+        <v>0.2</v>
+      </c>
+      <c r="AC11">
+        <v>0.7</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>7.3</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>15.3</v>
+      </c>
+      <c r="J12">
+        <v>1.6</v>
+      </c>
+      <c r="K12">
+        <v>4.4</v>
+      </c>
+      <c r="L12">
+        <v>0.368</v>
+      </c>
+      <c r="M12">
+        <v>1.2</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
+        <v>0.347</v>
+      </c>
+      <c r="P12">
+        <v>0.4</v>
+      </c>
+      <c r="Q12">
+        <v>0.8</v>
+      </c>
+      <c r="R12">
+        <v>0.463</v>
+      </c>
+      <c r="S12">
+        <v>0.511</v>
+      </c>
+      <c r="T12">
+        <v>0.8</v>
+      </c>
+      <c r="U12">
+        <v>1.1</v>
+      </c>
+      <c r="V12">
+        <v>0.746</v>
+      </c>
+      <c r="W12">
+        <v>0.2</v>
+      </c>
+      <c r="X12">
+        <v>1.1</v>
+      </c>
+      <c r="Y12">
+        <v>1.4</v>
+      </c>
+      <c r="Z12">
+        <v>2.2</v>
+      </c>
+      <c r="AA12">
+        <v>0.6</v>
+      </c>
+      <c r="AB12">
+        <v>0.2</v>
+      </c>
+      <c r="AC12">
+        <v>0.5</v>
+      </c>
+      <c r="AD12">
+        <v>0.9</v>
+      </c>
+      <c r="AE12">
+        <v>5.3</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>28.2</v>
+      </c>
+      <c r="J13">
+        <v>4.6</v>
+      </c>
+      <c r="K13">
+        <v>11.3</v>
+      </c>
+      <c r="L13">
+        <v>0.408</v>
+      </c>
+      <c r="M13">
+        <v>3.2</v>
+      </c>
+      <c r="N13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.389</v>
+      </c>
+      <c r="P13">
+        <v>1.4</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0.462</v>
+      </c>
+      <c r="S13">
+        <v>0.551</v>
+      </c>
+      <c r="T13">
+        <v>3.1</v>
+      </c>
+      <c r="U13">
+        <v>3.8</v>
+      </c>
+      <c r="V13">
+        <v>0.8</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>2.3</v>
+      </c>
+      <c r="Y13">
+        <v>2.8</v>
+      </c>
+      <c r="Z13">
+        <v>4.6</v>
+      </c>
+      <c r="AA13">
+        <v>0.7</v>
+      </c>
+      <c r="AB13">
+        <v>0.4</v>
+      </c>
+      <c r="AC13">
+        <v>1.3</v>
+      </c>
+      <c r="AD13">
+        <v>1.6</v>
+      </c>
+      <c r="AE13">
+        <v>15.5</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>27.7</v>
+      </c>
+      <c r="J15">
+        <v>4.2</v>
+      </c>
+      <c r="K15">
+        <v>11.3</v>
+      </c>
+      <c r="L15">
+        <v>0.376</v>
+      </c>
+      <c r="M15">
+        <v>2.6</v>
+      </c>
+      <c r="N15">
+        <v>7.2</v>
+      </c>
+      <c r="O15">
+        <v>0.364</v>
+      </c>
+      <c r="P15">
+        <v>1.6</v>
+      </c>
+      <c r="Q15">
+        <v>4.1</v>
+      </c>
+      <c r="R15">
+        <v>0.395</v>
+      </c>
+      <c r="S15">
+        <v>0.492</v>
+      </c>
+      <c r="T15">
+        <v>2.2</v>
+      </c>
+      <c r="U15">
+        <v>2.7</v>
+      </c>
+      <c r="V15">
+        <v>0.822</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>2.1</v>
+      </c>
+      <c r="Y15">
+        <v>2.6</v>
+      </c>
+      <c r="Z15">
+        <v>5.4</v>
+      </c>
+      <c r="AA15">
+        <v>0.8</v>
+      </c>
+      <c r="AB15">
+        <v>0.1</v>
+      </c>
+      <c r="AC15">
+        <v>1.8</v>
+      </c>
+      <c r="AD15">
+        <v>1.5</v>
+      </c>
+      <c r="AE15">
+        <v>13.3</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>129</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>8.1</v>
+      </c>
+      <c r="L17">
+        <v>0.364</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>5.8</v>
+      </c>
+      <c r="O17">
+        <v>0.343</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2.3</v>
+      </c>
+      <c r="R17">
+        <v>0.42</v>
+      </c>
+      <c r="S17">
+        <v>0.488</v>
+      </c>
+      <c r="T17">
+        <v>1.3</v>
+      </c>
+      <c r="U17">
+        <v>1.5</v>
+      </c>
+      <c r="V17">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="W17">
+        <v>0.4</v>
+      </c>
+      <c r="X17">
+        <v>1.6</v>
+      </c>
+      <c r="Y17">
+        <v>1.9</v>
+      </c>
+      <c r="Z17">
+        <v>3.3</v>
+      </c>
+      <c r="AA17">
+        <v>0.8</v>
+      </c>
+      <c r="AB17">
+        <v>0.2</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1.1</v>
+      </c>
+      <c r="AE17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>0.333</v>
+      </c>
+      <c r="M18">
+        <v>0.8</v>
+      </c>
+      <c r="N18">
+        <v>2.3</v>
+      </c>
+      <c r="O18">
+        <v>0.357</v>
+      </c>
+      <c r="P18">
+        <v>0.2</v>
+      </c>
+      <c r="Q18">
+        <v>0.7</v>
+      </c>
+      <c r="R18">
+        <v>0.25</v>
+      </c>
+      <c r="S18">
+        <v>0.472</v>
+      </c>
+      <c r="T18">
+        <v>1.2</v>
+      </c>
+      <c r="U18">
+        <v>1.3</v>
+      </c>
+      <c r="V18">
+        <v>0.875</v>
+      </c>
+      <c r="W18">
+        <v>0.3</v>
+      </c>
+      <c r="X18">
+        <v>1.2</v>
+      </c>
+      <c r="Y18">
+        <v>1.5</v>
+      </c>
+      <c r="Z18">
+        <v>0.7</v>
+      </c>
+      <c r="AA18">
+        <v>0.2</v>
+      </c>
+      <c r="AB18">
+        <v>0.2</v>
+      </c>
+      <c r="AC18">
+        <v>0.7</v>
+      </c>
+      <c r="AD18">
+        <v>0.5</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>-2</v>
+      </c>
+      <c r="K19">
+        <v>-5.1</v>
+      </c>
+      <c r="L19">
+        <v>-0.03099999999999997</v>
+      </c>
+      <c r="M19">
+        <v>-1.2</v>
+      </c>
+      <c r="N19">
+        <v>-3.5</v>
+      </c>
+      <c r="O19">
+        <v>0.01399999999999996</v>
+      </c>
+      <c r="P19">
+        <v>-0.8</v>
+      </c>
+      <c r="Q19">
+        <v>-1.6</v>
+      </c>
+      <c r="R19">
+        <v>-0.17</v>
+      </c>
+      <c r="S19">
+        <v>-0.01600000000000001</v>
+      </c>
+      <c r="T19">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="U19">
+        <v>-0.2</v>
+      </c>
+      <c r="V19">
+        <v>0.06100000000000005</v>
+      </c>
+      <c r="W19">
+        <v>-0.1</v>
+      </c>
+      <c r="X19">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="Y19">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="Z19">
+        <v>-2.6</v>
+      </c>
+      <c r="AA19">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>-0.3</v>
+      </c>
+      <c r="AD19">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>-5.199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>28.2</v>
+      </c>
+      <c r="J20">
+        <v>4.6</v>
+      </c>
+      <c r="K20">
+        <v>11.3</v>
+      </c>
+      <c r="L20">
+        <v>0.408</v>
+      </c>
+      <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.389</v>
+      </c>
+      <c r="P20">
+        <v>1.4</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0.462</v>
+      </c>
+      <c r="S20">
+        <v>0.551</v>
+      </c>
+      <c r="T20">
+        <v>3.1</v>
+      </c>
+      <c r="U20">
+        <v>3.8</v>
+      </c>
+      <c r="V20">
+        <v>0.8</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>2.3</v>
+      </c>
+      <c r="Y20">
+        <v>2.8</v>
+      </c>
+      <c r="Z20">
+        <v>4.6</v>
+      </c>
+      <c r="AA20">
+        <v>0.7</v>
+      </c>
+      <c r="AB20">
+        <v>0.4</v>
+      </c>
+      <c r="AC20">
+        <v>1.3</v>
+      </c>
+      <c r="AD20">
+        <v>1.6</v>
+      </c>
+      <c r="AE20">
+        <v>15.5</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>306</v>
+      </c>
+      <c r="H22">
+        <v>169</v>
+      </c>
+      <c r="I22">
+        <v>25.8</v>
+      </c>
+      <c r="J22">
+        <v>3.7</v>
+      </c>
+      <c r="K22">
+        <v>9.9</v>
+      </c>
+      <c r="L22">
+        <v>0.373</v>
+      </c>
+      <c r="M22">
+        <v>2.4</v>
+      </c>
+      <c r="N22">
+        <v>6.7</v>
+      </c>
+      <c r="O22">
+        <v>0.358</v>
+      </c>
+      <c r="P22">
+        <v>1.3</v>
+      </c>
+      <c r="Q22">
+        <v>3.3</v>
+      </c>
+      <c r="R22">
+        <v>0.405</v>
+      </c>
+      <c r="S22">
+        <v>0.493</v>
+      </c>
+      <c r="T22">
+        <v>1.8</v>
+      </c>
+      <c r="U22">
+        <v>2.2</v>
+      </c>
+      <c r="V22">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.4</v>
+      </c>
+      <c r="X22">
+        <v>1.9</v>
+      </c>
+      <c r="Y22">
+        <v>2.3</v>
+      </c>
+      <c r="Z22">
+        <v>4.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.8</v>
+      </c>
+      <c r="AB22">
+        <v>0.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.5</v>
+      </c>
+      <c r="AD22">
+        <v>1.3</v>
+      </c>
+      <c r="AE22">
+        <v>11.6</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>0.333</v>
+      </c>
+      <c r="M23">
+        <v>0.8</v>
+      </c>
+      <c r="N23">
+        <v>2.3</v>
+      </c>
+      <c r="O23">
+        <v>0.357</v>
+      </c>
+      <c r="P23">
+        <v>0.2</v>
+      </c>
+      <c r="Q23">
+        <v>0.7</v>
+      </c>
+      <c r="R23">
+        <v>0.25</v>
+      </c>
+      <c r="S23">
+        <v>0.472</v>
+      </c>
+      <c r="T23">
+        <v>1.2</v>
+      </c>
+      <c r="U23">
+        <v>1.3</v>
+      </c>
+      <c r="V23">
+        <v>0.875</v>
+      </c>
+      <c r="W23">
+        <v>0.3</v>
+      </c>
+      <c r="X23">
+        <v>1.2</v>
+      </c>
+      <c r="Y23">
+        <v>1.5</v>
+      </c>
+      <c r="Z23">
+        <v>0.7</v>
+      </c>
+      <c r="AA23">
+        <v>0.2</v>
+      </c>
+      <c r="AB23">
+        <v>0.2</v>
+      </c>
+      <c r="AC23">
+        <v>0.7</v>
+      </c>
+      <c r="AD23">
+        <v>0.5</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>-2.7</v>
+      </c>
+      <c r="K24">
+        <v>-6.9</v>
+      </c>
+      <c r="L24">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="M24">
+        <v>-1.6</v>
+      </c>
+      <c r="N24">
+        <v>-4.4</v>
+      </c>
+      <c r="O24">
+        <v>-0.001000000000000001</v>
+      </c>
+      <c r="P24">
+        <v>-1.1</v>
+      </c>
+      <c r="Q24">
+        <v>-2.6</v>
+      </c>
+      <c r="R24">
+        <v>-0.155</v>
+      </c>
+      <c r="S24">
+        <v>-0.02100000000000002</v>
+      </c>
+      <c r="T24">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="U24">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="V24">
+        <v>0.05700000000000005</v>
+      </c>
+      <c r="W24">
+        <v>-0.1</v>
+      </c>
+      <c r="X24">
+        <v>-0.7</v>
+      </c>
+      <c r="Y24">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="Z24">
+        <v>-3.8</v>
+      </c>
+      <c r="AA24">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>-0.8</v>
+      </c>
+      <c r="AD24">
+        <v>-0.8</v>
+      </c>
+      <c r="AE24">
+        <v>-7.6</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,16 +2389,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -1270,7 +2473,7 @@
         <v>11.6</v>
       </c>
       <c r="AE2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1286,16 +2489,16 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>63</v>
@@ -1370,7 +2573,7 @@
         <v>18.6</v>
       </c>
       <c r="AE4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1386,91 +2589,91 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>44</v>
       </c>
       <c r="I6">
-        <v>1531</v>
+        <v>1659</v>
       </c>
       <c r="J6">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K6">
         <v>14.5</v>
       </c>
       <c r="L6">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N6">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="O6">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="P6">
         <v>1.6</v>
       </c>
       <c r="Q6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="R6">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="S6">
+        <v>2.9</v>
+      </c>
+      <c r="T6">
+        <v>3.4</v>
+      </c>
+      <c r="U6">
+        <v>0.842</v>
+      </c>
+      <c r="V6">
+        <v>0.5</v>
+      </c>
+      <c r="W6">
         <v>2.7</v>
-      </c>
-      <c r="T6">
-        <v>3.3</v>
-      </c>
-      <c r="U6">
-        <v>0.821</v>
-      </c>
-      <c r="V6">
-        <v>0.4</v>
-      </c>
-      <c r="W6">
-        <v>2.8</v>
       </c>
       <c r="X6">
         <v>3.2</v>
       </c>
       <c r="Y6">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0.1</v>
       </c>
       <c r="AB6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC6">
         <v>1.7</v>
       </c>
       <c r="AD6">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="AE6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1485,88 +2688,1219 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>4418</v>
+        <v>2162</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="K8">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="L8">
-        <v>0.375</v>
+        <v>0.363</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="O8">
-        <v>0.363</v>
+        <v>0.341</v>
       </c>
       <c r="P8">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q8">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="R8">
-        <v>0.394</v>
+        <v>0.413</v>
       </c>
       <c r="S8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="U8">
-        <v>0.8139999999999999</v>
+        <v>0.843</v>
       </c>
       <c r="V8">
         <v>0.6</v>
       </c>
       <c r="W8">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="X8">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Y8">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z8">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AA8">
         <v>0.2</v>
       </c>
       <c r="AB8">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC8">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD8">
-        <v>17.1</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>3.6</v>
+      </c>
+      <c r="K9">
+        <v>10.8</v>
+      </c>
+      <c r="L9">
+        <v>0.333</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>8.4</v>
+      </c>
+      <c r="O9">
+        <v>0.357</v>
+      </c>
+      <c r="P9">
+        <v>0.6</v>
+      </c>
+      <c r="Q9">
+        <v>2.4</v>
+      </c>
+      <c r="R9">
+        <v>0.25</v>
+      </c>
+      <c r="S9">
+        <v>4.2</v>
+      </c>
+      <c r="T9">
+        <v>4.8</v>
+      </c>
+      <c r="U9">
+        <v>0.875</v>
+      </c>
+      <c r="V9">
+        <v>1.2</v>
+      </c>
+      <c r="W9">
+        <v>4.2</v>
+      </c>
+      <c r="X9">
+        <v>5.4</v>
+      </c>
+      <c r="Y9">
+        <v>2.4</v>
+      </c>
+      <c r="Z9">
+        <v>0.6</v>
+      </c>
+      <c r="AA9">
+        <v>0.6</v>
+      </c>
+      <c r="AB9">
+        <v>2.4</v>
+      </c>
+      <c r="AC9">
+        <v>1.8</v>
+      </c>
+      <c r="AD9">
+        <v>14.4</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>-1.3</v>
+      </c>
+      <c r="K10">
+        <v>-2.799999999999999</v>
+      </c>
+      <c r="L10">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="M10">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>0.01599999999999996</v>
+      </c>
+      <c r="P10">
+        <v>-1.1</v>
+      </c>
+      <c r="Q10">
+        <v>-1.8</v>
+      </c>
+      <c r="R10">
+        <v>-0.163</v>
+      </c>
+      <c r="S10">
+        <v>2.2</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>0.03200000000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.6</v>
+      </c>
+      <c r="W10">
+        <v>1.9</v>
+      </c>
+      <c r="X10">
+        <v>2.5</v>
+      </c>
+      <c r="Y10">
+        <v>-2.9</v>
+      </c>
+      <c r="Z10">
+        <v>-0.6</v>
+      </c>
+      <c r="AA10">
+        <v>0.4</v>
+      </c>
+      <c r="AB10">
+        <v>0.7</v>
+      </c>
+      <c r="AC10">
+        <v>0.2</v>
+      </c>
+      <c r="AD10">
+        <v>-0.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1178</v>
+      </c>
+      <c r="J11">
+        <v>4.4</v>
+      </c>
+      <c r="K11">
+        <v>11.6</v>
+      </c>
+      <c r="L11">
+        <v>0.384</v>
+      </c>
+      <c r="M11">
+        <v>3.3</v>
+      </c>
+      <c r="N11">
+        <v>9.1</v>
+      </c>
+      <c r="O11">
+        <v>0.362</v>
+      </c>
+      <c r="P11">
+        <v>1.1</v>
+      </c>
+      <c r="Q11">
+        <v>2.4</v>
+      </c>
+      <c r="R11">
+        <v>0.463</v>
+      </c>
+      <c r="S11">
+        <v>2.6</v>
+      </c>
+      <c r="T11">
+        <v>3.3</v>
+      </c>
+      <c r="U11">
+        <v>0.771</v>
+      </c>
+      <c r="V11">
+        <v>0.6</v>
+      </c>
+      <c r="W11">
+        <v>2.8</v>
+      </c>
+      <c r="X11">
+        <v>3.3</v>
+      </c>
+      <c r="Y11">
+        <v>5.4</v>
+      </c>
+      <c r="Z11">
+        <v>1.2</v>
+      </c>
+      <c r="AA11">
+        <v>0.5</v>
+      </c>
+      <c r="AB11">
+        <v>1.3</v>
+      </c>
+      <c r="AC11">
+        <v>2.1</v>
+      </c>
+      <c r="AD11">
+        <v>14.7</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>811</v>
+      </c>
+      <c r="J12">
+        <v>3.8</v>
+      </c>
+      <c r="K12">
+        <v>10.3</v>
+      </c>
+      <c r="L12">
+        <v>0.368</v>
+      </c>
+      <c r="M12">
+        <v>2.9</v>
+      </c>
+      <c r="N12">
+        <v>8.4</v>
+      </c>
+      <c r="O12">
+        <v>0.347</v>
+      </c>
+      <c r="P12">
+        <v>0.8</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <v>0.463</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.6</v>
+      </c>
+      <c r="U12">
+        <v>0.746</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+      <c r="W12">
+        <v>2.7</v>
+      </c>
+      <c r="X12">
+        <v>3.2</v>
+      </c>
+      <c r="Y12">
+        <v>5.1</v>
+      </c>
+      <c r="Z12">
+        <v>1.3</v>
+      </c>
+      <c r="AA12">
+        <v>0.4</v>
+      </c>
+      <c r="AB12">
+        <v>1.2</v>
+      </c>
+      <c r="AC12">
+        <v>2.1</v>
+      </c>
+      <c r="AD12">
+        <v>12.4</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>367</v>
+      </c>
+      <c r="J13">
+        <v>5.9</v>
+      </c>
+      <c r="K13">
+        <v>14.4</v>
+      </c>
+      <c r="L13">
+        <v>0.408</v>
+      </c>
+      <c r="M13">
+        <v>4.1</v>
+      </c>
+      <c r="N13">
+        <v>10.6</v>
+      </c>
+      <c r="O13">
+        <v>0.389</v>
+      </c>
+      <c r="P13">
+        <v>1.8</v>
+      </c>
+      <c r="Q13">
+        <v>3.8</v>
+      </c>
+      <c r="R13">
+        <v>0.462</v>
+      </c>
+      <c r="S13">
+        <v>3.9</v>
+      </c>
+      <c r="T13">
+        <v>4.9</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>0.6</v>
+      </c>
+      <c r="W13">
+        <v>2.9</v>
+      </c>
+      <c r="X13">
+        <v>3.5</v>
+      </c>
+      <c r="Y13">
+        <v>5.9</v>
+      </c>
+      <c r="Z13">
+        <v>0.9</v>
+      </c>
+      <c r="AA13">
+        <v>0.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.7</v>
+      </c>
+      <c r="AC13">
+        <v>2.1</v>
+      </c>
+      <c r="AD13">
+        <v>19.8</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>4546</v>
+      </c>
+      <c r="J15">
+        <v>5.5</v>
+      </c>
+      <c r="K15">
+        <v>14.6</v>
+      </c>
+      <c r="L15">
+        <v>0.376</v>
+      </c>
+      <c r="M15">
+        <v>3.4</v>
+      </c>
+      <c r="N15">
+        <v>9.4</v>
+      </c>
+      <c r="O15">
+        <v>0.364</v>
+      </c>
+      <c r="P15">
+        <v>2.1</v>
+      </c>
+      <c r="Q15">
+        <v>5.3</v>
+      </c>
+      <c r="R15">
+        <v>0.395</v>
+      </c>
+      <c r="S15">
+        <v>2.8</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
+        <v>0.822</v>
+      </c>
+      <c r="V15">
+        <v>0.6</v>
+      </c>
+      <c r="W15">
+        <v>2.8</v>
+      </c>
+      <c r="X15">
+        <v>3.3</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>1.1</v>
+      </c>
+      <c r="AA15">
+        <v>0.2</v>
+      </c>
+      <c r="AB15">
+        <v>2.3</v>
+      </c>
+      <c r="AC15">
+        <v>1.9</v>
+      </c>
+      <c r="AD15">
+        <v>17.2</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>129</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>2973</v>
+      </c>
+      <c r="J17">
+        <v>4.6</v>
+      </c>
+      <c r="K17">
+        <v>12.7</v>
+      </c>
+      <c r="L17">
+        <v>0.364</v>
+      </c>
+      <c r="M17">
+        <v>3.1</v>
+      </c>
+      <c r="N17">
+        <v>9.1</v>
+      </c>
+      <c r="O17">
+        <v>0.343</v>
+      </c>
+      <c r="P17">
+        <v>1.5</v>
+      </c>
+      <c r="Q17">
+        <v>3.5</v>
+      </c>
+      <c r="R17">
+        <v>0.42</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2.4</v>
+      </c>
+      <c r="U17">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="V17">
+        <v>0.6</v>
+      </c>
+      <c r="W17">
+        <v>2.4</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>5.2</v>
+      </c>
+      <c r="Z17">
+        <v>1.2</v>
+      </c>
+      <c r="AA17">
+        <v>0.3</v>
+      </c>
+      <c r="AB17">
+        <v>1.6</v>
+      </c>
+      <c r="AC17">
+        <v>1.7</v>
+      </c>
+      <c r="AD17">
+        <v>14.3</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>3.6</v>
+      </c>
+      <c r="K18">
+        <v>10.8</v>
+      </c>
+      <c r="L18">
+        <v>0.333</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>8.4</v>
+      </c>
+      <c r="O18">
+        <v>0.357</v>
+      </c>
+      <c r="P18">
+        <v>0.6</v>
+      </c>
+      <c r="Q18">
+        <v>2.4</v>
+      </c>
+      <c r="R18">
+        <v>0.25</v>
+      </c>
+      <c r="S18">
+        <v>4.2</v>
+      </c>
+      <c r="T18">
+        <v>4.8</v>
+      </c>
+      <c r="U18">
+        <v>0.875</v>
+      </c>
+      <c r="V18">
+        <v>1.2</v>
+      </c>
+      <c r="W18">
+        <v>4.2</v>
+      </c>
+      <c r="X18">
+        <v>5.4</v>
+      </c>
+      <c r="Y18">
+        <v>2.4</v>
+      </c>
+      <c r="Z18">
+        <v>0.6</v>
+      </c>
+      <c r="AA18">
+        <v>0.6</v>
+      </c>
+      <c r="AB18">
+        <v>2.4</v>
+      </c>
+      <c r="AC18">
+        <v>1.8</v>
+      </c>
+      <c r="AD18">
+        <v>14.4</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>-0.9999999999999996</v>
+      </c>
+      <c r="K19">
+        <v>-1.899999999999999</v>
+      </c>
+      <c r="L19">
+        <v>-0.03099999999999997</v>
+      </c>
+      <c r="M19">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="N19">
+        <v>-0.6999999999999993</v>
+      </c>
+      <c r="O19">
+        <v>0.01399999999999996</v>
+      </c>
+      <c r="P19">
+        <v>-0.9</v>
+      </c>
+      <c r="Q19">
+        <v>-1.1</v>
+      </c>
+      <c r="R19">
+        <v>-0.17</v>
+      </c>
+      <c r="S19">
+        <v>2.2</v>
+      </c>
+      <c r="T19">
+        <v>2.4</v>
+      </c>
+      <c r="U19">
+        <v>0.06100000000000005</v>
+      </c>
+      <c r="V19">
+        <v>0.6</v>
+      </c>
+      <c r="W19">
+        <v>1.8</v>
+      </c>
+      <c r="X19">
+        <v>2.4</v>
+      </c>
+      <c r="Y19">
+        <v>-2.8</v>
+      </c>
+      <c r="Z19">
+        <v>-0.6</v>
+      </c>
+      <c r="AA19">
+        <v>0.3</v>
+      </c>
+      <c r="AB19">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AC19">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>0.09999999999999964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>367</v>
+      </c>
+      <c r="J20">
+        <v>5.9</v>
+      </c>
+      <c r="K20">
+        <v>14.4</v>
+      </c>
+      <c r="L20">
+        <v>0.408</v>
+      </c>
+      <c r="M20">
+        <v>4.1</v>
+      </c>
+      <c r="N20">
+        <v>10.6</v>
+      </c>
+      <c r="O20">
+        <v>0.389</v>
+      </c>
+      <c r="P20">
+        <v>1.8</v>
+      </c>
+      <c r="Q20">
+        <v>3.8</v>
+      </c>
+      <c r="R20">
+        <v>0.462</v>
+      </c>
+      <c r="S20">
+        <v>3.9</v>
+      </c>
+      <c r="T20">
+        <v>4.9</v>
+      </c>
+      <c r="U20">
+        <v>0.8</v>
+      </c>
+      <c r="V20">
+        <v>0.6</v>
+      </c>
+      <c r="W20">
+        <v>2.9</v>
+      </c>
+      <c r="X20">
+        <v>3.5</v>
+      </c>
+      <c r="Y20">
+        <v>5.9</v>
+      </c>
+      <c r="Z20">
+        <v>0.9</v>
+      </c>
+      <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>1.7</v>
+      </c>
+      <c r="AC20">
+        <v>2.1</v>
+      </c>
+      <c r="AD20">
+        <v>19.8</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>306</v>
+      </c>
+      <c r="H22">
+        <v>169</v>
+      </c>
+      <c r="I22">
+        <v>7886</v>
+      </c>
+      <c r="J22">
+        <v>5.2</v>
+      </c>
+      <c r="K22">
+        <v>13.9</v>
+      </c>
+      <c r="L22">
+        <v>0.373</v>
+      </c>
+      <c r="M22">
+        <v>3.3</v>
+      </c>
+      <c r="N22">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.358</v>
+      </c>
+      <c r="P22">
+        <v>1.8</v>
+      </c>
+      <c r="Q22">
+        <v>4.6</v>
+      </c>
+      <c r="R22">
+        <v>0.405</v>
+      </c>
+      <c r="S22">
+        <v>2.6</v>
+      </c>
+      <c r="T22">
+        <v>3.1</v>
+      </c>
+      <c r="U22">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.6</v>
+      </c>
+      <c r="W22">
+        <v>2.6</v>
+      </c>
+      <c r="X22">
+        <v>3.2</v>
+      </c>
+      <c r="Y22">
+        <v>6.3</v>
+      </c>
+      <c r="Z22">
+        <v>1.1</v>
+      </c>
+      <c r="AA22">
+        <v>0.2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>1.8</v>
+      </c>
+      <c r="AD22">
+        <v>16.3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>3.6</v>
+      </c>
+      <c r="K23">
+        <v>10.8</v>
+      </c>
+      <c r="L23">
+        <v>0.333</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>8.4</v>
+      </c>
+      <c r="O23">
+        <v>0.357</v>
+      </c>
+      <c r="P23">
+        <v>0.6</v>
+      </c>
+      <c r="Q23">
+        <v>2.4</v>
+      </c>
+      <c r="R23">
+        <v>0.25</v>
+      </c>
+      <c r="S23">
+        <v>4.2</v>
+      </c>
+      <c r="T23">
+        <v>4.8</v>
+      </c>
+      <c r="U23">
+        <v>0.875</v>
+      </c>
+      <c r="V23">
+        <v>1.2</v>
+      </c>
+      <c r="W23">
+        <v>4.2</v>
+      </c>
+      <c r="X23">
+        <v>5.4</v>
+      </c>
+      <c r="Y23">
+        <v>2.4</v>
+      </c>
+      <c r="Z23">
+        <v>0.6</v>
+      </c>
+      <c r="AA23">
+        <v>0.6</v>
+      </c>
+      <c r="AB23">
+        <v>2.4</v>
+      </c>
+      <c r="AC23">
+        <v>1.8</v>
+      </c>
+      <c r="AD23">
+        <v>14.4</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>-1.6</v>
+      </c>
+      <c r="K24">
+        <v>-3.1</v>
+      </c>
+      <c r="L24">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="M24">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="N24">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="O24">
+        <v>-0.001000000000000001</v>
+      </c>
+      <c r="P24">
+        <v>-1.2</v>
+      </c>
+      <c r="Q24">
+        <v>-2.2</v>
+      </c>
+      <c r="R24">
+        <v>-0.155</v>
+      </c>
+      <c r="S24">
+        <v>1.6</v>
+      </c>
+      <c r="T24">
+        <v>1.7</v>
+      </c>
+      <c r="U24">
+        <v>0.05700000000000005</v>
+      </c>
+      <c r="V24">
+        <v>0.6</v>
+      </c>
+      <c r="W24">
+        <v>1.6</v>
+      </c>
+      <c r="X24">
+        <v>2.2</v>
+      </c>
+      <c r="Y24">
+        <v>-3.9</v>
+      </c>
+      <c r="Z24">
+        <v>-0.5000000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>0.4</v>
+      </c>
+      <c r="AB24">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>-1.9</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +3910,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1672,10 +4006,10 @@
       </c>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>30</v>
@@ -1689,16 +4023,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -1779,7 +4113,7 @@
         <v>115</v>
       </c>
       <c r="AH2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1795,16 +4129,16 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>63</v>
@@ -1885,7 +4219,7 @@
         <v>116</v>
       </c>
       <c r="AH4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1901,25 +4235,25 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>44</v>
       </c>
       <c r="I6">
-        <v>1531</v>
+        <v>1659</v>
       </c>
       <c r="J6">
         <v>7.4</v>
@@ -1928,70 +4262,70 @@
         <v>19.7</v>
       </c>
       <c r="L6">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="M6">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N6">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="P6">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="R6">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="S6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T6">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="U6">
-        <v>0.821</v>
+        <v>0.842</v>
       </c>
       <c r="V6">
         <v>0.6</v>
       </c>
       <c r="W6">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="X6">
         <v>4.4</v>
       </c>
       <c r="Y6">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA6">
         <v>0.2</v>
       </c>
       <c r="AB6">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AC6">
         <v>2.3</v>
       </c>
       <c r="AD6">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="AF6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6">
         <v>116</v>
       </c>
       <c r="AH6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -2006,94 +4340,1303 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>4418</v>
+        <v>2162</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="K8">
-        <v>20.1</v>
+        <v>18.6</v>
       </c>
       <c r="L8">
-        <v>0.375</v>
+        <v>0.363</v>
       </c>
       <c r="M8">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="N8">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="O8">
-        <v>0.363</v>
+        <v>0.341</v>
       </c>
       <c r="P8">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q8">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="R8">
-        <v>0.394</v>
+        <v>0.413</v>
       </c>
       <c r="S8">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="T8">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="U8">
-        <v>0.8139999999999999</v>
+        <v>0.843</v>
       </c>
       <c r="V8">
         <v>0.8</v>
       </c>
       <c r="W8">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="X8">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>9.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Z8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA8">
         <v>0.3</v>
       </c>
       <c r="AB8">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC8">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD8">
-        <v>23.5</v>
+        <v>20.6</v>
       </c>
       <c r="AF8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG8">
         <v>116</v>
       </c>
       <c r="AH8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>5.1</v>
+      </c>
+      <c r="K9">
+        <v>15.4</v>
+      </c>
+      <c r="L9">
+        <v>0.333</v>
+      </c>
+      <c r="M9">
+        <v>4.3</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>0.357</v>
+      </c>
+      <c r="P9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9">
+        <v>3.4</v>
+      </c>
+      <c r="R9">
+        <v>0.25</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6.9</v>
+      </c>
+      <c r="U9">
+        <v>0.875</v>
+      </c>
+      <c r="V9">
+        <v>1.7</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>7.7</v>
+      </c>
+      <c r="Y9">
+        <v>3.4</v>
+      </c>
+      <c r="Z9">
+        <v>0.9</v>
+      </c>
+      <c r="AA9">
+        <v>0.9</v>
+      </c>
+      <c r="AB9">
+        <v>3.4</v>
+      </c>
+      <c r="AC9">
+        <v>2.6</v>
+      </c>
+      <c r="AD9">
+        <v>20.6</v>
+      </c>
+      <c r="AF9">
+        <v>112</v>
+      </c>
+      <c r="AG9">
+        <v>120</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>-1.7</v>
+      </c>
+      <c r="K10">
+        <v>-3.200000000000001</v>
+      </c>
+      <c r="L10">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="M10">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="N10">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="O10">
+        <v>0.01599999999999996</v>
+      </c>
+      <c r="P10">
+        <v>-1.5</v>
+      </c>
+      <c r="Q10">
+        <v>-2.4</v>
+      </c>
+      <c r="R10">
+        <v>-0.163</v>
+      </c>
+      <c r="S10">
+        <v>3.3</v>
+      </c>
+      <c r="T10">
+        <v>3.7</v>
+      </c>
+      <c r="U10">
+        <v>0.03200000000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="W10">
+        <v>2.8</v>
+      </c>
+      <c r="X10">
+        <v>3.7</v>
+      </c>
+      <c r="Y10">
+        <v>-3.8</v>
+      </c>
+      <c r="Z10">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>3</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1178</v>
+      </c>
+      <c r="J11">
+        <v>5.9</v>
+      </c>
+      <c r="K11">
+        <v>15.4</v>
+      </c>
+      <c r="L11">
+        <v>0.384</v>
+      </c>
+      <c r="M11">
+        <v>4.4</v>
+      </c>
+      <c r="N11">
+        <v>12.2</v>
+      </c>
+      <c r="O11">
+        <v>0.362</v>
+      </c>
+      <c r="P11">
+        <v>1.5</v>
+      </c>
+      <c r="Q11">
+        <v>3.3</v>
+      </c>
+      <c r="R11">
+        <v>0.463</v>
+      </c>
+      <c r="S11">
+        <v>3.4</v>
+      </c>
+      <c r="T11">
+        <v>4.4</v>
+      </c>
+      <c r="U11">
+        <v>0.771</v>
+      </c>
+      <c r="V11">
+        <v>0.7</v>
+      </c>
+      <c r="W11">
+        <v>3.7</v>
+      </c>
+      <c r="X11">
+        <v>4.4</v>
+      </c>
+      <c r="Y11">
+        <v>7.2</v>
+      </c>
+      <c r="Z11">
+        <v>1.6</v>
+      </c>
+      <c r="AA11">
+        <v>0.6</v>
+      </c>
+      <c r="AB11">
+        <v>1.8</v>
+      </c>
+      <c r="AC11">
+        <v>2.8</v>
+      </c>
+      <c r="AD11">
+        <v>19.7</v>
+      </c>
+      <c r="AF11">
+        <v>121</v>
+      </c>
+      <c r="AG11">
+        <v>117</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>811</v>
+      </c>
+      <c r="J12">
+        <v>5.1</v>
+      </c>
+      <c r="K12">
+        <v>13.8</v>
+      </c>
+      <c r="L12">
+        <v>0.368</v>
+      </c>
+      <c r="M12">
+        <v>3.9</v>
+      </c>
+      <c r="N12">
+        <v>11.3</v>
+      </c>
+      <c r="O12">
+        <v>0.347</v>
+      </c>
+      <c r="P12">
+        <v>1.1</v>
+      </c>
+      <c r="Q12">
+        <v>2.4</v>
+      </c>
+      <c r="R12">
+        <v>0.463</v>
+      </c>
+      <c r="S12">
+        <v>2.6</v>
+      </c>
+      <c r="T12">
+        <v>3.5</v>
+      </c>
+      <c r="U12">
+        <v>0.746</v>
+      </c>
+      <c r="V12">
+        <v>0.7</v>
+      </c>
+      <c r="W12">
+        <v>3.6</v>
+      </c>
+      <c r="X12">
+        <v>4.3</v>
+      </c>
+      <c r="Y12">
+        <v>6.9</v>
+      </c>
+      <c r="Z12">
+        <v>1.8</v>
+      </c>
+      <c r="AA12">
+        <v>0.6</v>
+      </c>
+      <c r="AB12">
+        <v>1.6</v>
+      </c>
+      <c r="AC12">
+        <v>2.9</v>
+      </c>
+      <c r="AD12">
+        <v>16.7</v>
+      </c>
+      <c r="AF12">
+        <v>118</v>
+      </c>
+      <c r="AG12">
+        <v>115</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>367</v>
+      </c>
+      <c r="J13">
+        <v>7.8</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>0.408</v>
+      </c>
+      <c r="M13">
+        <v>5.4</v>
+      </c>
+      <c r="N13">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>0.389</v>
+      </c>
+      <c r="P13">
+        <v>2.3</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>0.462</v>
+      </c>
+      <c r="S13">
+        <v>5.2</v>
+      </c>
+      <c r="T13">
+        <v>6.5</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>0.8</v>
+      </c>
+      <c r="W13">
+        <v>3.9</v>
+      </c>
+      <c r="X13">
+        <v>4.7</v>
+      </c>
+      <c r="Y13">
+        <v>7.8</v>
+      </c>
+      <c r="Z13">
+        <v>1.2</v>
+      </c>
+      <c r="AA13">
+        <v>0.6</v>
+      </c>
+      <c r="AB13">
+        <v>2.2</v>
+      </c>
+      <c r="AC13">
+        <v>2.7</v>
+      </c>
+      <c r="AD13">
+        <v>26.1</v>
+      </c>
+      <c r="AF13">
+        <v>124</v>
+      </c>
+      <c r="AG13">
+        <v>122</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>4546</v>
+      </c>
+      <c r="J15">
+        <v>7.5</v>
+      </c>
+      <c r="K15">
+        <v>20.1</v>
+      </c>
+      <c r="L15">
+        <v>0.376</v>
+      </c>
+      <c r="M15">
+        <v>4.7</v>
+      </c>
+      <c r="N15">
+        <v>12.9</v>
+      </c>
+      <c r="O15">
+        <v>0.364</v>
+      </c>
+      <c r="P15">
+        <v>2.9</v>
+      </c>
+      <c r="Q15">
+        <v>7.2</v>
+      </c>
+      <c r="R15">
+        <v>0.395</v>
+      </c>
+      <c r="S15">
+        <v>3.9</v>
+      </c>
+      <c r="T15">
+        <v>4.7</v>
+      </c>
+      <c r="U15">
+        <v>0.822</v>
+      </c>
+      <c r="V15">
+        <v>0.8</v>
+      </c>
+      <c r="W15">
+        <v>3.8</v>
+      </c>
+      <c r="X15">
+        <v>4.6</v>
+      </c>
+      <c r="Y15">
+        <v>9.6</v>
+      </c>
+      <c r="Z15">
+        <v>1.4</v>
+      </c>
+      <c r="AA15">
+        <v>0.2</v>
+      </c>
+      <c r="AB15">
+        <v>3.2</v>
+      </c>
+      <c r="AC15">
+        <v>2.6</v>
+      </c>
+      <c r="AD15">
+        <v>23.7</v>
+      </c>
+      <c r="AF15">
+        <v>111</v>
+      </c>
+      <c r="AG15">
+        <v>116</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>129</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>2973</v>
+      </c>
+      <c r="J17">
+        <v>6.3</v>
+      </c>
+      <c r="K17">
+        <v>17.3</v>
+      </c>
+      <c r="L17">
+        <v>0.364</v>
+      </c>
+      <c r="M17">
+        <v>4.3</v>
+      </c>
+      <c r="N17">
+        <v>12.4</v>
+      </c>
+      <c r="O17">
+        <v>0.343</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>4.8</v>
+      </c>
+      <c r="R17">
+        <v>0.42</v>
+      </c>
+      <c r="S17">
+        <v>2.7</v>
+      </c>
+      <c r="T17">
+        <v>3.3</v>
+      </c>
+      <c r="U17">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="V17">
+        <v>0.8</v>
+      </c>
+      <c r="W17">
+        <v>3.3</v>
+      </c>
+      <c r="X17">
+        <v>4.1</v>
+      </c>
+      <c r="Y17">
+        <v>7.1</v>
+      </c>
+      <c r="Z17">
+        <v>1.7</v>
+      </c>
+      <c r="AA17">
+        <v>0.4</v>
+      </c>
+      <c r="AB17">
+        <v>2.2</v>
+      </c>
+      <c r="AC17">
+        <v>2.4</v>
+      </c>
+      <c r="AD17">
+        <v>19.5</v>
+      </c>
+      <c r="AF17">
+        <v>112</v>
+      </c>
+      <c r="AG17">
+        <v>116</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>5.1</v>
+      </c>
+      <c r="K18">
+        <v>15.4</v>
+      </c>
+      <c r="L18">
+        <v>0.333</v>
+      </c>
+      <c r="M18">
+        <v>4.3</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <v>0.357</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
+      </c>
+      <c r="Q18">
+        <v>3.4</v>
+      </c>
+      <c r="R18">
+        <v>0.25</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>6.9</v>
+      </c>
+      <c r="U18">
+        <v>0.875</v>
+      </c>
+      <c r="V18">
+        <v>1.7</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>7.7</v>
+      </c>
+      <c r="Y18">
+        <v>3.4</v>
+      </c>
+      <c r="Z18">
+        <v>0.9</v>
+      </c>
+      <c r="AA18">
+        <v>0.9</v>
+      </c>
+      <c r="AB18">
+        <v>3.4</v>
+      </c>
+      <c r="AC18">
+        <v>2.6</v>
+      </c>
+      <c r="AD18">
+        <v>20.6</v>
+      </c>
+      <c r="AF18">
+        <v>112</v>
+      </c>
+      <c r="AG18">
+        <v>120</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>-1.2</v>
+      </c>
+      <c r="K19">
+        <v>-1.9</v>
+      </c>
+      <c r="L19">
+        <v>-0.03099999999999997</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="O19">
+        <v>0.01399999999999996</v>
+      </c>
+      <c r="P19">
+        <v>-1.1</v>
+      </c>
+      <c r="Q19">
+        <v>-1.4</v>
+      </c>
+      <c r="R19">
+        <v>-0.17</v>
+      </c>
+      <c r="S19">
+        <v>3.3</v>
+      </c>
+      <c r="T19">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="U19">
+        <v>0.06100000000000005</v>
+      </c>
+      <c r="V19">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="W19">
+        <v>2.7</v>
+      </c>
+      <c r="X19">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="Y19">
+        <v>-3.7</v>
+      </c>
+      <c r="Z19">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>0.5</v>
+      </c>
+      <c r="AB19">
+        <v>1.2</v>
+      </c>
+      <c r="AC19">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD19">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>367</v>
+      </c>
+      <c r="J20">
+        <v>7.8</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>0.408</v>
+      </c>
+      <c r="M20">
+        <v>5.4</v>
+      </c>
+      <c r="N20">
+        <v>14</v>
+      </c>
+      <c r="O20">
+        <v>0.389</v>
+      </c>
+      <c r="P20">
+        <v>2.3</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>0.462</v>
+      </c>
+      <c r="S20">
+        <v>5.2</v>
+      </c>
+      <c r="T20">
+        <v>6.5</v>
+      </c>
+      <c r="U20">
+        <v>0.8</v>
+      </c>
+      <c r="V20">
+        <v>0.8</v>
+      </c>
+      <c r="W20">
+        <v>3.9</v>
+      </c>
+      <c r="X20">
+        <v>4.7</v>
+      </c>
+      <c r="Y20">
+        <v>7.8</v>
+      </c>
+      <c r="Z20">
+        <v>1.2</v>
+      </c>
+      <c r="AA20">
+        <v>0.6</v>
+      </c>
+      <c r="AB20">
+        <v>2.2</v>
+      </c>
+      <c r="AC20">
+        <v>2.7</v>
+      </c>
+      <c r="AD20">
+        <v>26.1</v>
+      </c>
+      <c r="AF20">
+        <v>124</v>
+      </c>
+      <c r="AG20">
+        <v>122</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>306</v>
+      </c>
+      <c r="H22">
+        <v>169</v>
+      </c>
+      <c r="I22">
+        <v>7886</v>
+      </c>
+      <c r="J22">
+        <v>7.1</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>0.373</v>
+      </c>
+      <c r="M22">
+        <v>4.6</v>
+      </c>
+      <c r="N22">
+        <v>12.7</v>
+      </c>
+      <c r="O22">
+        <v>0.358</v>
+      </c>
+      <c r="P22">
+        <v>2.5</v>
+      </c>
+      <c r="Q22">
+        <v>6.2</v>
+      </c>
+      <c r="R22">
+        <v>0.405</v>
+      </c>
+      <c r="S22">
+        <v>3.5</v>
+      </c>
+      <c r="T22">
+        <v>4.3</v>
+      </c>
+      <c r="U22">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.8</v>
+      </c>
+      <c r="W22">
+        <v>3.6</v>
+      </c>
+      <c r="X22">
+        <v>4.4</v>
+      </c>
+      <c r="Y22">
+        <v>8.6</v>
+      </c>
+      <c r="Z22">
+        <v>1.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.3</v>
+      </c>
+      <c r="AB22">
+        <v>2.8</v>
+      </c>
+      <c r="AC22">
+        <v>2.5</v>
+      </c>
+      <c r="AD22">
+        <v>22.2</v>
+      </c>
+      <c r="AF22">
+        <v>112</v>
+      </c>
+      <c r="AG22">
+        <v>116</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>5.1</v>
+      </c>
+      <c r="K23">
+        <v>15.4</v>
+      </c>
+      <c r="L23">
+        <v>0.333</v>
+      </c>
+      <c r="M23">
+        <v>4.3</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>0.357</v>
+      </c>
+      <c r="P23">
+        <v>0.9</v>
+      </c>
+      <c r="Q23">
+        <v>3.4</v>
+      </c>
+      <c r="R23">
+        <v>0.25</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>6.9</v>
+      </c>
+      <c r="U23">
+        <v>0.875</v>
+      </c>
+      <c r="V23">
+        <v>1.7</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="X23">
+        <v>7.7</v>
+      </c>
+      <c r="Y23">
+        <v>3.4</v>
+      </c>
+      <c r="Z23">
+        <v>0.9</v>
+      </c>
+      <c r="AA23">
+        <v>0.9</v>
+      </c>
+      <c r="AB23">
+        <v>3.4</v>
+      </c>
+      <c r="AC23">
+        <v>2.6</v>
+      </c>
+      <c r="AD23">
+        <v>20.6</v>
+      </c>
+      <c r="AF23">
+        <v>112</v>
+      </c>
+      <c r="AG23">
+        <v>120</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>-2</v>
+      </c>
+      <c r="K24">
+        <v>-3.6</v>
+      </c>
+      <c r="L24">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="M24">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="N24">
+        <v>-0.6999999999999993</v>
+      </c>
+      <c r="O24">
+        <v>-0.001000000000000001</v>
+      </c>
+      <c r="P24">
+        <v>-1.6</v>
+      </c>
+      <c r="Q24">
+        <v>-2.8</v>
+      </c>
+      <c r="R24">
+        <v>-0.155</v>
+      </c>
+      <c r="S24">
+        <v>2.5</v>
+      </c>
+      <c r="T24">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.05700000000000005</v>
+      </c>
+      <c r="V24">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="W24">
+        <v>2.4</v>
+      </c>
+      <c r="X24">
+        <v>3.3</v>
+      </c>
+      <c r="Y24">
+        <v>-5.199999999999999</v>
+      </c>
+      <c r="Z24">
+        <v>-0.6</v>
+      </c>
+      <c r="AA24">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AC24">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD24">
+        <v>-1.599999999999998</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +5646,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2132,70 +5675,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>
@@ -2209,16 +5752,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -2287,7 +5830,7 @@
         <v>-0.3</v>
       </c>
       <c r="AE2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -2303,16 +5846,16 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>63</v>
@@ -2381,7 +5924,7 @@
         <v>1.4</v>
       </c>
       <c r="AE4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -2397,85 +5940,85 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
-        <v>1531</v>
+        <v>1659</v>
       </c>
       <c r="I6">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="J6">
-        <v>0.544</v>
+        <v>0.552</v>
       </c>
       <c r="K6">
-        <v>0.707</v>
+        <v>0.713</v>
       </c>
       <c r="L6">
-        <v>0.227</v>
+        <v>0.236</v>
       </c>
       <c r="M6">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N6">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="O6">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="P6">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R6">
         <v>0.4</v>
       </c>
       <c r="S6">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="T6">
         <v>21.4</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W6">
         <v>0.9</v>
       </c>
       <c r="X6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Y6">
-        <v>0.092</v>
+        <v>0.099</v>
       </c>
       <c r="AA6">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AB6">
         <v>-1.1</v>
       </c>
       <c r="AC6">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD6">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AE6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -2490,82 +6033,1144 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="H8">
-        <v>4418</v>
+        <v>2162</v>
       </c>
       <c r="I8">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="J8">
-        <v>0.53</v>
+        <v>0.514</v>
       </c>
       <c r="K8">
-        <v>0.636</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="L8">
-        <v>0.233</v>
+        <v>0.172</v>
       </c>
       <c r="M8">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="N8">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="O8">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>30.6</v>
+        <v>21</v>
       </c>
       <c r="Q8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R8">
         <v>0.5</v>
       </c>
       <c r="S8">
-        <v>12.8</v>
+        <v>10.7</v>
       </c>
       <c r="T8">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="V8">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="W8">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X8">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
-        <v>0.073</v>
+        <v>0.062</v>
       </c>
       <c r="AA8">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AB8">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="AC8">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AE8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>11.5</v>
+      </c>
+      <c r="J9">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.778</v>
+      </c>
+      <c r="L9">
+        <v>0.444</v>
+      </c>
+      <c r="M9">
+        <v>3.7</v>
+      </c>
+      <c r="N9">
+        <v>14.7</v>
+      </c>
+      <c r="O9">
+        <v>8.9</v>
+      </c>
+      <c r="P9">
+        <v>9.4</v>
+      </c>
+      <c r="Q9">
+        <v>0.9</v>
+      </c>
+      <c r="R9">
+        <v>1.4</v>
+      </c>
+      <c r="S9">
+        <v>15.7</v>
+      </c>
+      <c r="T9">
+        <v>18.3</v>
+      </c>
+      <c r="V9">
+        <v>0.1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9">
+        <v>0.049</v>
+      </c>
+      <c r="AA9">
+        <v>-0.2</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>-1.1</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.04400000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.08700000000000008</v>
+      </c>
+      <c r="L10">
+        <v>0.272</v>
+      </c>
+      <c r="M10">
+        <v>1.8</v>
+      </c>
+      <c r="N10">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="O10">
+        <v>4.4</v>
+      </c>
+      <c r="P10">
+        <v>-11.6</v>
+      </c>
+      <c r="Q10">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="V10">
+        <v>-1.5</v>
+      </c>
+      <c r="W10">
+        <v>-1.2</v>
+      </c>
+      <c r="X10">
+        <v>-2.7</v>
+      </c>
+      <c r="Y10">
+        <v>-0.013</v>
+      </c>
+      <c r="AA10">
+        <v>-0.4</v>
+      </c>
+      <c r="AB10">
+        <v>0.2</v>
+      </c>
+      <c r="AC10">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>1178</v>
+      </c>
+      <c r="I11">
+        <v>13.3</v>
+      </c>
+      <c r="J11">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.788</v>
+      </c>
+      <c r="L11">
+        <v>0.288</v>
+      </c>
+      <c r="M11">
+        <v>1.7</v>
+      </c>
+      <c r="N11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O11">
+        <v>5.1</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>1.6</v>
+      </c>
+      <c r="R11">
+        <v>1.2</v>
+      </c>
+      <c r="S11">
+        <v>9.4</v>
+      </c>
+      <c r="T11">
+        <v>16.8</v>
+      </c>
+      <c r="V11">
+        <v>1.7</v>
+      </c>
+      <c r="W11">
+        <v>0.9</v>
+      </c>
+      <c r="X11">
+        <v>2.6</v>
+      </c>
+      <c r="Y11">
+        <v>0.105</v>
+      </c>
+      <c r="AA11">
+        <v>0.8</v>
+      </c>
+      <c r="AB11">
+        <v>-0.1</v>
+      </c>
+      <c r="AC11">
+        <v>0.7</v>
+      </c>
+      <c r="AD11">
+        <v>0.8</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>811</v>
+      </c>
+      <c r="I12">
+        <v>11.8</v>
+      </c>
+      <c r="J12">
+        <v>0.545</v>
+      </c>
+      <c r="K12">
+        <v>0.823</v>
+      </c>
+      <c r="L12">
+        <v>0.255</v>
+      </c>
+      <c r="M12">
+        <v>1.7</v>
+      </c>
+      <c r="N12">
+        <v>8.4</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>18.8</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <v>1.2</v>
+      </c>
+      <c r="S12">
+        <v>9.5</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>0.9</v>
+      </c>
+      <c r="W12">
+        <v>0.8</v>
+      </c>
+      <c r="X12">
+        <v>1.7</v>
+      </c>
+      <c r="Y12">
+        <v>0.1</v>
+      </c>
+      <c r="AA12">
+        <v>-0.4</v>
+      </c>
+      <c r="AB12">
+        <v>0.4</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.4</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>367</v>
+      </c>
+      <c r="I13">
+        <v>16.6</v>
+      </c>
+      <c r="J13">
+        <v>0.598</v>
+      </c>
+      <c r="K13">
+        <v>0.735</v>
+      </c>
+      <c r="L13">
+        <v>0.34</v>
+      </c>
+      <c r="M13">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>9.4</v>
+      </c>
+      <c r="O13">
+        <v>5.4</v>
+      </c>
+      <c r="P13">
+        <v>22.5</v>
+      </c>
+      <c r="Q13">
+        <v>1.2</v>
+      </c>
+      <c r="R13">
+        <v>1.1</v>
+      </c>
+      <c r="S13">
+        <v>9.1</v>
+      </c>
+      <c r="T13">
+        <v>21</v>
+      </c>
+      <c r="V13">
+        <v>0.8</v>
+      </c>
+      <c r="W13">
+        <v>0.1</v>
+      </c>
+      <c r="X13">
+        <v>0.9</v>
+      </c>
+      <c r="Y13">
+        <v>0.117</v>
+      </c>
+      <c r="AA13">
+        <v>3.4</v>
+      </c>
+      <c r="AB13">
+        <v>-1.1</v>
+      </c>
+      <c r="AC13">
+        <v>2.3</v>
+      </c>
+      <c r="AD13">
+        <v>0.4</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
+      </c>
+      <c r="H15">
+        <v>4546</v>
+      </c>
+      <c r="I15">
+        <v>14.5</v>
+      </c>
+      <c r="J15">
+        <v>0.534</v>
+      </c>
+      <c r="K15">
+        <v>0.64</v>
+      </c>
+      <c r="L15">
+        <v>0.236</v>
+      </c>
+      <c r="M15">
+        <v>1.7</v>
+      </c>
+      <c r="N15">
+        <v>8.6</v>
+      </c>
+      <c r="O15">
+        <v>5.1</v>
+      </c>
+      <c r="P15">
+        <v>30.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.4</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>12.6</v>
+      </c>
+      <c r="T15">
+        <v>22.4</v>
+      </c>
+      <c r="V15">
+        <v>5.1</v>
+      </c>
+      <c r="W15">
+        <v>2.2</v>
+      </c>
+      <c r="X15">
+        <v>7.3</v>
+      </c>
+      <c r="Y15">
+        <v>0.077</v>
+      </c>
+      <c r="AA15">
+        <v>1.5</v>
+      </c>
+      <c r="AB15">
+        <v>-1.6</v>
+      </c>
+      <c r="AC15">
+        <v>-0.1</v>
+      </c>
+      <c r="AD15">
+        <v>2.1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>129</v>
+      </c>
+      <c r="H17">
+        <v>2973</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>0.521</v>
+      </c>
+      <c r="K17">
+        <v>0.72</v>
+      </c>
+      <c r="L17">
+        <v>0.19</v>
+      </c>
+      <c r="M17">
+        <v>1.8</v>
+      </c>
+      <c r="N17">
+        <v>7.6</v>
+      </c>
+      <c r="O17">
+        <v>4.7</v>
+      </c>
+      <c r="P17">
+        <v>20.4</v>
+      </c>
+      <c r="Q17">
+        <v>1.7</v>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17">
+        <v>10.4</v>
+      </c>
+      <c r="T17">
+        <v>18.3</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>4.5</v>
+      </c>
+      <c r="Y17">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>-0.8</v>
+      </c>
+      <c r="AC17">
+        <v>-0.8</v>
+      </c>
+      <c r="AD17">
+        <v>0.9</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>11.5</v>
+      </c>
+      <c r="J18">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.778</v>
+      </c>
+      <c r="L18">
+        <v>0.444</v>
+      </c>
+      <c r="M18">
+        <v>3.7</v>
+      </c>
+      <c r="N18">
+        <v>14.7</v>
+      </c>
+      <c r="O18">
+        <v>8.9</v>
+      </c>
+      <c r="P18">
+        <v>9.4</v>
+      </c>
+      <c r="Q18">
+        <v>0.9</v>
+      </c>
+      <c r="R18">
+        <v>1.4</v>
+      </c>
+      <c r="S18">
+        <v>15.7</v>
+      </c>
+      <c r="T18">
+        <v>18.3</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.1</v>
+      </c>
+      <c r="Y18">
+        <v>0.049</v>
+      </c>
+      <c r="AA18">
+        <v>-0.2</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
+        <v>-1.1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-0.5</v>
+      </c>
+      <c r="J19">
+        <v>0.03700000000000003</v>
+      </c>
+      <c r="K19">
+        <v>0.05800000000000005</v>
+      </c>
+      <c r="L19">
+        <v>0.254</v>
+      </c>
+      <c r="M19">
+        <v>1.9</v>
+      </c>
+      <c r="N19">
+        <v>7.1</v>
+      </c>
+      <c r="O19">
+        <v>4.2</v>
+      </c>
+      <c r="P19">
+        <v>-11</v>
+      </c>
+      <c r="Q19">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19">
+        <v>5.299999999999999</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>-2.4</v>
+      </c>
+      <c r="W19">
+        <v>-2</v>
+      </c>
+      <c r="X19">
+        <v>-4.4</v>
+      </c>
+      <c r="Y19">
+        <v>-0.02299999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>-0.2</v>
+      </c>
+      <c r="AB19">
+        <v>-0.2</v>
+      </c>
+      <c r="AC19">
+        <v>-0.3</v>
+      </c>
+      <c r="AD19">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>367</v>
+      </c>
+      <c r="I20">
+        <v>16.6</v>
+      </c>
+      <c r="J20">
+        <v>0.598</v>
+      </c>
+      <c r="K20">
+        <v>0.735</v>
+      </c>
+      <c r="L20">
+        <v>0.34</v>
+      </c>
+      <c r="M20">
+        <v>1.7</v>
+      </c>
+      <c r="N20">
+        <v>9.4</v>
+      </c>
+      <c r="O20">
+        <v>5.4</v>
+      </c>
+      <c r="P20">
+        <v>22.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.2</v>
+      </c>
+      <c r="R20">
+        <v>1.1</v>
+      </c>
+      <c r="S20">
+        <v>9.1</v>
+      </c>
+      <c r="T20">
+        <v>21</v>
+      </c>
+      <c r="V20">
+        <v>0.8</v>
+      </c>
+      <c r="W20">
+        <v>0.1</v>
+      </c>
+      <c r="X20">
+        <v>0.9</v>
+      </c>
+      <c r="Y20">
+        <v>0.117</v>
+      </c>
+      <c r="AA20">
+        <v>3.4</v>
+      </c>
+      <c r="AB20">
+        <v>-1.1</v>
+      </c>
+      <c r="AC20">
+        <v>2.3</v>
+      </c>
+      <c r="AD20">
+        <v>0.4</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>306</v>
+      </c>
+      <c r="H22">
+        <v>7886</v>
+      </c>
+      <c r="I22">
+        <v>13.7</v>
+      </c>
+      <c r="J22">
+        <v>0.533</v>
+      </c>
+      <c r="K22">
+        <v>0.672</v>
+      </c>
+      <c r="L22">
+        <v>0.226</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O22">
+        <v>4.9</v>
+      </c>
+      <c r="P22">
+        <v>26.3</v>
+      </c>
+      <c r="Q22">
+        <v>1.5</v>
+      </c>
+      <c r="R22">
+        <v>0.6</v>
+      </c>
+      <c r="S22">
+        <v>11.7</v>
+      </c>
+      <c r="T22">
+        <v>20.8</v>
+      </c>
+      <c r="V22">
+        <v>8.4</v>
+      </c>
+      <c r="W22">
+        <v>4.3</v>
+      </c>
+      <c r="X22">
+        <v>12.6</v>
+      </c>
+      <c r="Y22">
+        <v>0.077</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>-1.3</v>
+      </c>
+      <c r="AC22">
+        <v>-0.2</v>
+      </c>
+      <c r="AD22">
+        <v>3.5</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>11.5</v>
+      </c>
+      <c r="J23">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.778</v>
+      </c>
+      <c r="L23">
+        <v>0.444</v>
+      </c>
+      <c r="M23">
+        <v>3.7</v>
+      </c>
+      <c r="N23">
+        <v>14.7</v>
+      </c>
+      <c r="O23">
+        <v>8.9</v>
+      </c>
+      <c r="P23">
+        <v>9.4</v>
+      </c>
+      <c r="Q23">
+        <v>0.9</v>
+      </c>
+      <c r="R23">
+        <v>1.4</v>
+      </c>
+      <c r="S23">
+        <v>15.7</v>
+      </c>
+      <c r="T23">
+        <v>18.3</v>
+      </c>
+      <c r="V23">
+        <v>0.1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.1</v>
+      </c>
+      <c r="Y23">
+        <v>0.049</v>
+      </c>
+      <c r="AA23">
+        <v>-0.2</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
+        <v>-1.1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.106</v>
+      </c>
+      <c r="L24">
+        <v>0.218</v>
+      </c>
+      <c r="M24">
+        <v>1.9</v>
+      </c>
+      <c r="N24">
+        <v>6.399999999999999</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>-16.9</v>
+      </c>
+      <c r="Q24">
+        <v>-0.6</v>
+      </c>
+      <c r="R24">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>-2.5</v>
+      </c>
+      <c r="V24">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="W24">
+        <v>-4.3</v>
+      </c>
+      <c r="X24">
+        <v>-12.5</v>
+      </c>
+      <c r="Y24">
+        <v>-0.028</v>
+      </c>
+      <c r="AA24">
+        <v>-1.2</v>
+      </c>
+      <c r="AB24">
+        <v>0.3</v>
+      </c>
+      <c r="AC24">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="AD24">
+        <v>-3.5</v>
       </c>
     </row>
   </sheetData>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -1299,28 +1299,28 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="J11">
         <v>2.2</v>
       </c>
       <c r="K11">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L11">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="N11">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O11">
         <v>0.362</v>
@@ -1332,10 +1332,10 @@
         <v>1.2</v>
       </c>
       <c r="R11">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="S11">
-        <v>0.526</v>
+        <v>0.524</v>
       </c>
       <c r="T11">
         <v>1.3</v>
@@ -1344,7 +1344,7 @@
         <v>1.7</v>
       </c>
       <c r="V11">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="W11">
         <v>0.3</v>
@@ -1356,7 +1356,7 @@
         <v>1.6</v>
       </c>
       <c r="Z11">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA11">
         <v>0.6</v>
@@ -1368,10 +1368,10 @@
         <v>0.7</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AE11">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF11" t="s">
         <v>51</v>
@@ -1495,31 +1495,31 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="J13">
         <v>4.6</v>
       </c>
       <c r="K13">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="L13">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="M13">
         <v>3.2</v>
       </c>
       <c r="N13">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="O13">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -1528,40 +1528,40 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="S13">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="T13">
         <v>3.1</v>
       </c>
       <c r="U13">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="V13">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
       <c r="W13">
         <v>0.5</v>
       </c>
       <c r="X13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y13">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Z13">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AA13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AB13">
         <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD13">
         <v>1.6</v>
@@ -1944,31 +1944,31 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="J20">
         <v>4.6</v>
       </c>
       <c r="K20">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="L20">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="M20">
         <v>3.2</v>
       </c>
       <c r="N20">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="O20">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="P20">
         <v>1.4</v>
@@ -1977,40 +1977,40 @@
         <v>3</v>
       </c>
       <c r="R20">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="S20">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="T20">
         <v>3.1</v>
       </c>
       <c r="U20">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="V20">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
       <c r="W20">
         <v>0.5</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Z20">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AA20">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AB20">
         <v>0.4</v>
       </c>
       <c r="AC20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD20">
         <v>1.6</v>
@@ -2038,7 +2038,7 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22">
         <v>169</v>
@@ -2080,10 +2080,10 @@
         <v>1.8</v>
       </c>
       <c r="U22">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V22">
-        <v>0.8179999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="W22">
         <v>0.4</v>
@@ -2110,7 +2110,7 @@
         <v>1.3</v>
       </c>
       <c r="AE22">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="AF22" t="s">
         <v>51</v>
@@ -2243,10 +2243,10 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="U24">
-        <v>-0.9000000000000001</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="V24">
-        <v>0.05700000000000005</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="W24">
         <v>-0.1</v>
@@ -2273,7 +2273,7 @@
         <v>-0.8</v>
       </c>
       <c r="AE24">
-        <v>-7.6</v>
+        <v>-7.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2959,28 +2959,28 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="J11">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K11">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="L11">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="M11">
         <v>3.3</v>
       </c>
       <c r="N11">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O11">
         <v>0.362</v>
@@ -2989,46 +2989,46 @@
         <v>1.1</v>
       </c>
       <c r="Q11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R11">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="S11">
         <v>2.6</v>
       </c>
       <c r="T11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="U11">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="V11">
         <v>0.6</v>
       </c>
       <c r="W11">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="X11">
         <v>3.3</v>
       </c>
       <c r="Y11">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z11">
         <v>1.2</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC11">
         <v>2.1</v>
       </c>
       <c r="AD11">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="AE11" t="s">
         <v>51</v>
@@ -3149,49 +3149,49 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J13">
         <v>5.9</v>
       </c>
       <c r="K13">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="L13">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="M13">
         <v>4.1</v>
       </c>
       <c r="N13">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="O13">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="P13">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q13">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="R13">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="S13">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T13">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="U13">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
       <c r="V13">
         <v>0.6</v>
@@ -3203,10 +3203,10 @@
         <v>3.5</v>
       </c>
       <c r="Y13">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Z13">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>0.5</v>
@@ -3218,7 +3218,7 @@
         <v>2.1</v>
       </c>
       <c r="AD13">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s">
         <v>51</v>
@@ -3583,49 +3583,49 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J20">
         <v>5.9</v>
       </c>
       <c r="K20">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="L20">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="M20">
         <v>4.1</v>
       </c>
       <c r="N20">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="O20">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="P20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q20">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="R20">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="S20">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T20">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="U20">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
       <c r="V20">
         <v>0.6</v>
@@ -3637,10 +3637,10 @@
         <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Z20">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
         <v>0.5</v>
@@ -3652,7 +3652,7 @@
         <v>2.1</v>
       </c>
       <c r="AD20">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s">
         <v>51</v>
@@ -3674,13 +3674,13 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22">
         <v>169</v>
       </c>
       <c r="I22">
-        <v>7886</v>
+        <v>7910</v>
       </c>
       <c r="J22">
         <v>5.2</v>
@@ -3713,10 +3713,10 @@
         <v>2.6</v>
       </c>
       <c r="T22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U22">
-        <v>0.8179999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="V22">
         <v>0.6</v>
@@ -3870,10 +3870,10 @@
         <v>1.6</v>
       </c>
       <c r="T24">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="U24">
-        <v>0.05700000000000005</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="V24">
         <v>0.6</v>
@@ -4629,28 +4629,28 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="J11">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="L11">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="M11">
         <v>4.4</v>
       </c>
       <c r="N11">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="O11">
         <v>0.362</v>
@@ -4662,28 +4662,28 @@
         <v>3.3</v>
       </c>
       <c r="R11">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="S11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T11">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="U11">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="V11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X11">
         <v>4.4</v>
       </c>
       <c r="Y11">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Z11">
         <v>1.6</v>
@@ -4698,10 +4698,10 @@
         <v>2.8</v>
       </c>
       <c r="AD11">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AF11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG11">
         <v>117</v>
@@ -4831,79 +4831,79 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J13">
         <v>7.8</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="L13">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="M13">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N13">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="O13">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="P13">
         <v>2.3</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="R13">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="S13">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T13">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U13">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
       <c r="V13">
         <v>0.8</v>
       </c>
       <c r="W13">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X13">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y13">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z13">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AA13">
         <v>0.6</v>
       </c>
       <c r="AB13">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC13">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD13">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="AF13">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG13">
         <v>122</v>
@@ -5103,7 +5103,7 @@
         <v>19.5</v>
       </c>
       <c r="AF17">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG17">
         <v>116</v>
@@ -5275,7 +5275,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>4</v>
@@ -5295,79 +5295,79 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J20">
         <v>7.8</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="L20">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="M20">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N20">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="O20">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="P20">
         <v>2.3</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="R20">
-        <v>0.462</v>
+        <v>0.452</v>
       </c>
       <c r="S20">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T20">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U20">
-        <v>0.8</v>
+        <v>0.772</v>
       </c>
       <c r="V20">
         <v>0.8</v>
       </c>
       <c r="W20">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X20">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y20">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z20">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AA20">
         <v>0.6</v>
       </c>
       <c r="AB20">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC20">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD20">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="AF20">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG20">
         <v>122</v>
@@ -5392,13 +5392,13 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22">
         <v>169</v>
       </c>
       <c r="I22">
-        <v>7886</v>
+        <v>7910</v>
       </c>
       <c r="J22">
         <v>7.1</v>
@@ -5413,7 +5413,7 @@
         <v>4.6</v>
       </c>
       <c r="N22">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="O22">
         <v>0.358</v>
@@ -5434,7 +5434,7 @@
         <v>4.3</v>
       </c>
       <c r="U22">
-        <v>0.8179999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="V22">
         <v>0.8</v>
@@ -5464,7 +5464,7 @@
         <v>22.2</v>
       </c>
       <c r="AF22">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG22">
         <v>116</v>
@@ -5582,7 +5582,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="N24">
-        <v>-0.6999999999999993</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="O24">
         <v>-0.001000000000000001</v>
@@ -5603,7 +5603,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="U24">
-        <v>0.05700000000000005</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="V24">
         <v>0.8999999999999999</v>
@@ -5633,7 +5633,7 @@
         <v>-1.599999999999998</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
         <v>4</v>
@@ -6289,46 +6289,46 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="I11">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="J11">
-        <v>0.5659999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K11">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="L11">
-        <v>0.288</v>
+        <v>0.297</v>
       </c>
       <c r="M11">
         <v>1.7</v>
       </c>
       <c r="N11">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O11">
         <v>5.1</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="Q11">
         <v>1.6</v>
       </c>
       <c r="R11">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="S11">
         <v>9.4</v>
       </c>
       <c r="T11">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="V11">
         <v>1.7</v>
@@ -6340,16 +6340,16 @@
         <v>2.6</v>
       </c>
       <c r="Y11">
-        <v>0.105</v>
+        <v>0.102</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB11">
         <v>-0.1</v>
       </c>
       <c r="AC11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD11">
         <v>0.8</v>
@@ -6429,13 +6429,13 @@
         <v>1.7</v>
       </c>
       <c r="Y12">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="AA12">
         <v>-0.4</v>
       </c>
       <c r="AB12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -6467,46 +6467,46 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="I13">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="J13">
-        <v>0.598</v>
+        <v>0.589</v>
       </c>
       <c r="K13">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="L13">
-        <v>0.34</v>
+        <v>0.358</v>
       </c>
       <c r="M13">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="N13">
+        <v>9.1</v>
+      </c>
+      <c r="O13">
+        <v>5.3</v>
+      </c>
+      <c r="P13">
+        <v>21.7</v>
+      </c>
+      <c r="Q13">
+        <v>1.1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>9.4</v>
       </c>
-      <c r="O13">
-        <v>5.4</v>
-      </c>
-      <c r="P13">
-        <v>22.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.2</v>
-      </c>
-      <c r="R13">
-        <v>1.1</v>
-      </c>
-      <c r="S13">
-        <v>9.1</v>
-      </c>
       <c r="T13">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="V13">
         <v>0.8</v>
@@ -6515,19 +6515,19 @@
         <v>0.1</v>
       </c>
       <c r="X13">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Y13">
-        <v>0.117</v>
+        <v>0.104</v>
       </c>
       <c r="AA13">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB13">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AC13">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD13">
         <v>0.4</v>
@@ -6694,16 +6694,16 @@
         <v>4.5</v>
       </c>
       <c r="Y17">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AC17">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD17">
         <v>0.9</v>
@@ -6845,16 +6845,16 @@
         <v>-4.4</v>
       </c>
       <c r="Y19">
-        <v>-0.02299999999999999</v>
+        <v>-0.02399999999999999</v>
       </c>
       <c r="AA19">
         <v>-0.2</v>
       </c>
       <c r="AB19">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AC19">
-        <v>-0.3</v>
+        <v>-0.4000000000000001</v>
       </c>
       <c r="AD19">
         <v>-0.9</v>
@@ -6874,46 +6874,46 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="I20">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="J20">
-        <v>0.598</v>
+        <v>0.589</v>
       </c>
       <c r="K20">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="L20">
-        <v>0.34</v>
+        <v>0.358</v>
       </c>
       <c r="M20">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="N20">
+        <v>9.1</v>
+      </c>
+      <c r="O20">
+        <v>5.3</v>
+      </c>
+      <c r="P20">
+        <v>21.7</v>
+      </c>
+      <c r="Q20">
+        <v>1.1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>9.4</v>
       </c>
-      <c r="O20">
-        <v>5.4</v>
-      </c>
-      <c r="P20">
-        <v>22.5</v>
-      </c>
-      <c r="Q20">
-        <v>1.2</v>
-      </c>
-      <c r="R20">
-        <v>1.1</v>
-      </c>
-      <c r="S20">
-        <v>9.1</v>
-      </c>
       <c r="T20">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="V20">
         <v>0.8</v>
@@ -6922,19 +6922,19 @@
         <v>0.1</v>
       </c>
       <c r="X20">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Y20">
-        <v>0.117</v>
+        <v>0.104</v>
       </c>
       <c r="AA20">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB20">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AC20">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD20">
         <v>0.4</v>
@@ -6959,10 +6959,10 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22">
-        <v>7886</v>
+        <v>7910</v>
       </c>
       <c r="I22">
         <v>13.7</v>
@@ -6974,19 +6974,19 @@
         <v>0.672</v>
       </c>
       <c r="L22">
-        <v>0.226</v>
+        <v>0.227</v>
       </c>
       <c r="M22">
         <v>1.8</v>
       </c>
       <c r="N22">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O22">
         <v>4.9</v>
       </c>
       <c r="P22">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q22">
         <v>1.5</v>
@@ -7001,7 +7001,7 @@
         <v>20.8</v>
       </c>
       <c r="V22">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="W22">
         <v>4.3</v>
@@ -7019,10 +7019,10 @@
         <v>-1.3</v>
       </c>
       <c r="AC22">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE22" t="s">
         <v>51</v>
@@ -7122,19 +7122,19 @@
         <v>0.106</v>
       </c>
       <c r="L24">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
       <c r="M24">
         <v>1.9</v>
       </c>
       <c r="N24">
-        <v>6.399999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="O24">
         <v>4</v>
       </c>
       <c r="P24">
-        <v>-16.9</v>
+        <v>-16.8</v>
       </c>
       <c r="Q24">
         <v>-0.6</v>
@@ -7149,7 +7149,7 @@
         <v>-2.5</v>
       </c>
       <c r="V24">
-        <v>-8.300000000000001</v>
+        <v>-8.200000000000001</v>
       </c>
       <c r="W24">
         <v>-4.3</v>
@@ -7167,10 +7167,10 @@
         <v>0.3</v>
       </c>
       <c r="AC24">
-        <v>-0.9000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="AD24">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
     </row>
   </sheetData>

--- a/output/grahade01.xlsx
+++ b/output/grahade01.xlsx
@@ -1299,13 +1299,13 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1314,28 +1314,28 @@
         <v>5.8</v>
       </c>
       <c r="L11">
-        <v>0.382</v>
+        <v>0.375</v>
       </c>
       <c r="M11">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="N11">
         <v>4.6</v>
       </c>
       <c r="O11">
-        <v>0.362</v>
+        <v>0.354</v>
       </c>
       <c r="P11">
         <v>0.6</v>
       </c>
       <c r="Q11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="R11">
-        <v>0.458</v>
+        <v>0.448</v>
       </c>
       <c r="S11">
-        <v>0.524</v>
+        <v>0.514</v>
       </c>
       <c r="T11">
         <v>1.3</v>
@@ -1344,7 +1344,7 @@
         <v>1.7</v>
       </c>
       <c r="V11">
-        <v>0.759</v>
+        <v>0.763</v>
       </c>
       <c r="W11">
         <v>0.3</v>
@@ -1353,10 +1353,10 @@
         <v>1.4</v>
       </c>
       <c r="Y11">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z11">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AA11">
         <v>0.6</v>
@@ -1371,7 +1371,7 @@
         <v>1.1</v>
       </c>
       <c r="AE11">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF11" t="s">
         <v>51</v>
@@ -1495,70 +1495,70 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="J13">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K13">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="L13">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="M13">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="O13">
-        <v>0.385</v>
+        <v>0.365</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R13">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="S13">
-        <v>0.544</v>
+        <v>0.517</v>
       </c>
       <c r="T13">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="U13">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="V13">
-        <v>0.772</v>
+        <v>0.78</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X13">
         <v>2.2</v>
       </c>
       <c r="Y13">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z13">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AA13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC13">
         <v>1.4</v>
@@ -1567,7 +1567,7 @@
         <v>1.6</v>
       </c>
       <c r="AE13">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="s">
         <v>51</v>
@@ -1944,70 +1944,70 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="J20">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K20">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="L20">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N20">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="O20">
-        <v>0.385</v>
+        <v>0.365</v>
       </c>
       <c r="P20">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R20">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="S20">
-        <v>0.544</v>
+        <v>0.517</v>
       </c>
       <c r="T20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="U20">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="V20">
-        <v>0.772</v>
+        <v>0.78</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X20">
         <v>2.2</v>
       </c>
       <c r="Y20">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z20">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AA20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC20">
         <v>1.4</v>
@@ -2016,7 +2016,7 @@
         <v>1.6</v>
       </c>
       <c r="AE20">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="s">
         <v>51</v>
@@ -2038,13 +2038,13 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H22">
         <v>169</v>
       </c>
       <c r="I22">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="J22">
         <v>3.7</v>
@@ -2053,7 +2053,7 @@
         <v>9.9</v>
       </c>
       <c r="L22">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="M22">
         <v>2.4</v>
@@ -2062,28 +2062,28 @@
         <v>6.7</v>
       </c>
       <c r="O22">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="P22">
         <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R22">
-        <v>0.405</v>
+        <v>0.404</v>
       </c>
       <c r="S22">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="T22">
         <v>1.8</v>
       </c>
       <c r="U22">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V22">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="W22">
         <v>0.4</v>
@@ -2110,7 +2110,7 @@
         <v>1.3</v>
       </c>
       <c r="AE22">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="AF22" t="s">
         <v>51</v>
@@ -2216,7 +2216,7 @@
         <v>-6.9</v>
       </c>
       <c r="L24">
-        <v>-0.03999999999999998</v>
+        <v>-0.03899999999999998</v>
       </c>
       <c r="M24">
         <v>-1.6</v>
@@ -2225,28 +2225,28 @@
         <v>-4.4</v>
       </c>
       <c r="O24">
-        <v>-0.001000000000000001</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="P24">
         <v>-1.1</v>
       </c>
       <c r="Q24">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="R24">
-        <v>-0.155</v>
+        <v>-0.154</v>
       </c>
       <c r="S24">
-        <v>-0.02100000000000002</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="T24">
         <v>-0.6000000000000001</v>
       </c>
       <c r="U24">
-        <v>-0.9999999999999998</v>
+        <v>-0.9000000000000001</v>
       </c>
       <c r="V24">
-        <v>0.06000000000000005</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="W24">
         <v>-0.1</v>
@@ -2273,7 +2273,7 @@
         <v>-0.8</v>
       </c>
       <c r="AE24">
-        <v>-7.699999999999999</v>
+        <v>-7.6</v>
       </c>
     </row>
   </sheetData>
@@ -2959,31 +2959,31 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>1202</v>
+        <v>1245</v>
       </c>
       <c r="J11">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K11">
         <v>11.7</v>
       </c>
       <c r="L11">
-        <v>0.382</v>
+        <v>0.375</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="O11">
-        <v>0.362</v>
+        <v>0.354</v>
       </c>
       <c r="P11">
         <v>1.1</v>
@@ -2992,19 +2992,19 @@
         <v>2.5</v>
       </c>
       <c r="R11">
-        <v>0.458</v>
+        <v>0.448</v>
       </c>
       <c r="S11">
         <v>2.6</v>
       </c>
       <c r="T11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U11">
-        <v>0.759</v>
+        <v>0.763</v>
       </c>
       <c r="V11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W11">
         <v>2.7</v>
@@ -3028,7 +3028,7 @@
         <v>2.1</v>
       </c>
       <c r="AD11">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="AE11" t="s">
         <v>51</v>
@@ -3149,49 +3149,49 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="J13">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="K13">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="L13">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="M13">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N13">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="O13">
-        <v>0.385</v>
+        <v>0.365</v>
       </c>
       <c r="P13">
         <v>1.7</v>
       </c>
       <c r="Q13">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="R13">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="S13">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="T13">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="U13">
-        <v>0.772</v>
+        <v>0.78</v>
       </c>
       <c r="V13">
         <v>0.6</v>
@@ -3206,19 +3206,19 @@
         <v>5.6</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB13">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC13">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD13">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="AE13" t="s">
         <v>51</v>
@@ -3583,49 +3583,49 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="J20">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="K20">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="L20">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="M20">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N20">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="O20">
-        <v>0.385</v>
+        <v>0.365</v>
       </c>
       <c r="P20">
         <v>1.7</v>
       </c>
       <c r="Q20">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="R20">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="S20">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="T20">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="U20">
-        <v>0.772</v>
+        <v>0.78</v>
       </c>
       <c r="V20">
         <v>0.6</v>
@@ -3640,19 +3640,19 @@
         <v>5.6</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB20">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC20">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD20">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="AE20" t="s">
         <v>51</v>
@@ -3674,13 +3674,13 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H22">
         <v>169</v>
       </c>
       <c r="I22">
-        <v>7910</v>
+        <v>7953</v>
       </c>
       <c r="J22">
         <v>5.2</v>
@@ -3689,7 +3689,7 @@
         <v>13.9</v>
       </c>
       <c r="L22">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="M22">
         <v>3.3</v>
@@ -3698,25 +3698,25 @@
         <v>9.300000000000001</v>
       </c>
       <c r="O22">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="P22">
         <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="R22">
-        <v>0.405</v>
+        <v>0.404</v>
       </c>
       <c r="S22">
         <v>2.6</v>
       </c>
       <c r="T22">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U22">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="V22">
         <v>0.6</v>
@@ -3740,10 +3740,10 @@
         <v>2</v>
       </c>
       <c r="AC22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD22">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AE22" t="s">
         <v>51</v>
@@ -3846,7 +3846,7 @@
         <v>-3.1</v>
       </c>
       <c r="L24">
-        <v>-0.03999999999999998</v>
+        <v>-0.03899999999999998</v>
       </c>
       <c r="M24">
         <v>-0.2999999999999998</v>
@@ -3855,25 +3855,25 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="O24">
-        <v>-0.001000000000000001</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="P24">
         <v>-1.2</v>
       </c>
       <c r="Q24">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="R24">
-        <v>-0.155</v>
+        <v>-0.154</v>
       </c>
       <c r="S24">
         <v>1.6</v>
       </c>
       <c r="T24">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U24">
-        <v>0.06000000000000005</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="V24">
         <v>0.6</v>
@@ -3897,10 +3897,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-0.09999999999999987</v>
       </c>
       <c r="AD24">
-        <v>-1.9</v>
+        <v>-1.799999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4629,40 +4629,40 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>1202</v>
+        <v>1245</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K11">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="L11">
-        <v>0.382</v>
+        <v>0.375</v>
       </c>
       <c r="M11">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N11">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="O11">
-        <v>0.362</v>
+        <v>0.354</v>
       </c>
       <c r="P11">
         <v>1.5</v>
       </c>
       <c r="Q11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R11">
-        <v>0.458</v>
+        <v>0.448</v>
       </c>
       <c r="S11">
         <v>3.5</v>
@@ -4671,13 +4671,13 @@
         <v>4.6</v>
       </c>
       <c r="U11">
-        <v>0.759</v>
+        <v>0.763</v>
       </c>
       <c r="V11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X11">
         <v>4.4</v>
@@ -4692,16 +4692,16 @@
         <v>0.6</v>
       </c>
       <c r="AB11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC11">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD11">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="AF11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG11">
         <v>117</v>
@@ -4831,49 +4831,49 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="J13">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="K13">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="L13">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="M13">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="O13">
-        <v>0.385</v>
+        <v>0.365</v>
       </c>
       <c r="P13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q13">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="S13">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T13">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="U13">
-        <v>0.772</v>
+        <v>0.78</v>
       </c>
       <c r="V13">
         <v>0.8</v>
@@ -4888,22 +4888,22 @@
         <v>7.4</v>
       </c>
       <c r="Z13">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AA13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC13">
         <v>2.8</v>
       </c>
       <c r="AD13">
-        <v>26.3</v>
+        <v>24.4</v>
       </c>
       <c r="AF13">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AG13">
         <v>122</v>
@@ -5103,7 +5103,7 @@
         <v>19.5</v>
       </c>
       <c r="AF17">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG17">
         <v>116</v>
@@ -5275,7 +5275,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <v>4</v>
@@ -5295,49 +5295,49 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="J20">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="K20">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="L20">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="M20">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="O20">
-        <v>0.385</v>
+        <v>0.365</v>
       </c>
       <c r="P20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q20">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="S20">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="U20">
-        <v>0.772</v>
+        <v>0.78</v>
       </c>
       <c r="V20">
         <v>0.8</v>
@@ -5352,22 +5352,22 @@
         <v>7.4</v>
       </c>
       <c r="Z20">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AA20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB20">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC20">
         <v>2.8</v>
       </c>
       <c r="AD20">
-        <v>26.3</v>
+        <v>24.4</v>
       </c>
       <c r="AF20">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AG20">
         <v>122</v>
@@ -5392,13 +5392,13 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H22">
         <v>169</v>
       </c>
       <c r="I22">
-        <v>7910</v>
+        <v>7953</v>
       </c>
       <c r="J22">
         <v>7.1</v>
@@ -5407,16 +5407,16 @@
         <v>19</v>
       </c>
       <c r="L22">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="M22">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="N22">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="O22">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="P22">
         <v>2.5</v>
@@ -5425,7 +5425,7 @@
         <v>6.2</v>
       </c>
       <c r="R22">
-        <v>0.405</v>
+        <v>0.404</v>
       </c>
       <c r="S22">
         <v>3.5</v>
@@ -5434,7 +5434,7 @@
         <v>4.3</v>
       </c>
       <c r="U22">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="V22">
         <v>0.8</v>
@@ -5576,16 +5576,16 @@
         <v>-3.6</v>
       </c>
       <c r="L24">
-        <v>-0.03999999999999998</v>
+        <v>-0.03899999999999998</v>
       </c>
       <c r="M24">
-        <v>-0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="N24">
-        <v>-0.8000000000000007</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="O24">
-        <v>-0.001000000000000001</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="P24">
         <v>-1.6</v>
@@ -5594,7 +5594,7 @@
         <v>-2.8</v>
       </c>
       <c r="R24">
-        <v>-0.155</v>
+        <v>-0.154</v>
       </c>
       <c r="S24">
         <v>2.5</v>
@@ -5603,7 +5603,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="U24">
-        <v>0.06000000000000005</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="V24">
         <v>0.8999999999999999</v>
@@ -6289,34 +6289,34 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11">
-        <v>1202</v>
+        <v>1245</v>
       </c>
       <c r="I11">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="J11">
-        <v>0.5629999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="K11">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="L11">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
       <c r="M11">
         <v>1.7</v>
       </c>
       <c r="N11">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O11">
         <v>5.1</v>
       </c>
       <c r="P11">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q11">
         <v>1.6</v>
@@ -6325,34 +6325,34 @@
         <v>1.1</v>
       </c>
       <c r="S11">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T11">
         <v>17.1</v>
       </c>
       <c r="V11">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="W11">
         <v>0.9</v>
       </c>
       <c r="X11">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y11">
-        <v>0.102</v>
+        <v>0.095</v>
       </c>
       <c r="AA11">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AB11">
         <v>-0.1</v>
       </c>
       <c r="AC11">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AD11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AE11" t="s">
         <v>51</v>
@@ -6405,7 +6405,7 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q12">
         <v>1.8</v>
@@ -6423,13 +6423,13 @@
         <v>0.9</v>
       </c>
       <c r="W12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="X12">
         <v>1.7</v>
       </c>
       <c r="Y12">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="AA12">
         <v>-0.4</v>
@@ -6438,7 +6438,7 @@
         <v>0.5</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD12">
         <v>0.4</v>
@@ -6467,70 +6467,70 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="J13">
-        <v>0.589</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K13">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="L13">
-        <v>0.358</v>
+        <v>0.343</v>
       </c>
       <c r="M13">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="N13">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O13">
         <v>5.3</v>
       </c>
       <c r="P13">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q13">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S13">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W13">
         <v>0.1</v>
       </c>
       <c r="X13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y13">
-        <v>0.104</v>
+        <v>0.079</v>
       </c>
       <c r="AA13">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AB13">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AC13">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AE13" t="s">
         <v>51</v>
@@ -6688,7 +6688,7 @@
         <v>2.5</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
         <v>4.5</v>
@@ -6706,7 +6706,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="s">
         <v>51</v>
@@ -6839,7 +6839,7 @@
         <v>-2.4</v>
       </c>
       <c r="W19">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="X19">
         <v>-4.4</v>
@@ -6857,7 +6857,7 @@
         <v>-0.4000000000000001</v>
       </c>
       <c r="AD19">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6874,70 +6874,70 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="J20">
-        <v>0.589</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K20">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="L20">
-        <v>0.358</v>
+        <v>0.343</v>
       </c>
       <c r="M20">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="N20">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O20">
         <v>5.3</v>
       </c>
       <c r="P20">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q20">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S20">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="T20">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V20">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W20">
         <v>0.1</v>
       </c>
       <c r="X20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y20">
-        <v>0.104</v>
+        <v>0.079</v>
       </c>
       <c r="AA20">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AB20">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AC20">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AE20" t="s">
         <v>51</v>
@@ -6959,19 +6959,19 @@
         <v>49</v>
       </c>
       <c r="G22">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H22">
-        <v>7910</v>
+        <v>7953</v>
       </c>
       <c r="I22">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="J22">
-        <v>0.533</v>
+        <v>0.531</v>
       </c>
       <c r="K22">
-        <v>0.672</v>
+        <v>0.673</v>
       </c>
       <c r="L22">
         <v>0.227</v>
@@ -6980,7 +6980,7 @@
         <v>1.8</v>
       </c>
       <c r="N22">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O22">
         <v>4.9</v>
@@ -6995,22 +6995,22 @@
         <v>0.6</v>
       </c>
       <c r="S22">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="T22">
         <v>20.8</v>
       </c>
       <c r="V22">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="W22">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X22">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y22">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE22" t="s">
         <v>51</v>
@@ -7113,13 +7113,13 @@
         <v>22</v>
       </c>
       <c r="I24">
-        <v>-2.199999999999999</v>
+        <v>-2.1</v>
       </c>
       <c r="J24">
-        <v>0.02500000000000002</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="K24">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="L24">
         <v>0.217</v>
@@ -7128,7 +7128,7 @@
         <v>1.9</v>
       </c>
       <c r="N24">
-        <v>6.5</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -7143,22 +7143,22 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="T24">
         <v>-2.5</v>
       </c>
       <c r="V24">
-        <v>-8.200000000000001</v>
+        <v>-8</v>
       </c>
       <c r="W24">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="X24">
-        <v>-12.5</v>
+        <v>-12.4</v>
       </c>
       <c r="Y24">
-        <v>-0.028</v>
+        <v>-0.027</v>
       </c>
       <c r="AA24">
         <v>-1.2</v>
@@ -7170,7 +7170,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD24">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
     </row>
   </sheetData>
